--- a/JupyterNotebooks/AvgHW/RGossF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,40 +626,40 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9985454435190541</v>
+        <v>0.9985454435190539</v>
       </c>
       <c r="D3">
         <v>0.9966869447305806</v>
       </c>
       <c r="E3">
+        <v>0.9966869447305806</v>
+      </c>
+      <c r="F3">
         <v>1.00224145508353</v>
       </c>
-      <c r="F3">
-        <v>0.9985454435190541</v>
-      </c>
       <c r="G3">
+        <v>1.001163897288122</v>
+      </c>
+      <c r="H3">
         <v>1.007416023718004</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.9969076251060773</v>
       </c>
-      <c r="I3">
-        <v>1.001163897288122</v>
-      </c>
       <c r="J3">
-        <v>0.9966869447305806</v>
+        <v>0.9985454435190539</v>
       </c>
       <c r="K3">
-        <v>0.9985454435190541</v>
+        <v>0.9985454435190539</v>
       </c>
       <c r="L3">
         <v>1.00224145508353</v>
       </c>
       <c r="M3">
-        <v>0.9994641999070554</v>
+        <v>0.9994641999070555</v>
       </c>
       <c r="N3">
-        <v>0.9994641999070554</v>
+        <v>0.9994641999070555</v>
       </c>
       <c r="O3">
         <v>0.9986120083067295</v>
@@ -788,7 +680,7 @@
         <v>1.000493564907561</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,22 +694,22 @@
         <v>0.9934429749911399</v>
       </c>
       <c r="E4">
+        <v>0.9934429749911399</v>
+      </c>
+      <c r="F4">
         <v>1.004318576882614</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>1.002264853654778</v>
+      </c>
+      <c r="H4">
+        <v>1.014153443099097</v>
+      </c>
+      <c r="I4">
+        <v>0.9940340670819293</v>
+      </c>
+      <c r="J4">
         <v>0.9972743134717317</v>
-      </c>
-      <c r="G4">
-        <v>1.014153443099097</v>
-      </c>
-      <c r="H4">
-        <v>0.9940340670819293</v>
-      </c>
-      <c r="I4">
-        <v>1.002264853654778</v>
-      </c>
-      <c r="J4">
-        <v>0.9934429749911399</v>
       </c>
       <c r="K4">
         <v>0.9972743134717317</v>
@@ -850,7 +742,7 @@
         <v>1.000914704863548</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -864,22 +756,22 @@
         <v>0.9873848338180319</v>
       </c>
       <c r="E5">
+        <v>0.9873848338180319</v>
+      </c>
+      <c r="F5">
         <v>1.008131676047657</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>1.004343998449982</v>
+      </c>
+      <c r="H5">
+        <v>1.026845182882938</v>
+      </c>
+      <c r="I5">
+        <v>0.988545513272996</v>
+      </c>
+      <c r="J5">
         <v>0.9951399788991644</v>
-      </c>
-      <c r="G5">
-        <v>1.026845182882938</v>
-      </c>
-      <c r="H5">
-        <v>0.988545513272996</v>
-      </c>
-      <c r="I5">
-        <v>1.004343998449982</v>
-      </c>
-      <c r="J5">
-        <v>0.9873848338180319</v>
       </c>
       <c r="K5">
         <v>0.9951399788991644</v>
@@ -912,7 +804,7 @@
         <v>1.001731863895128</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -926,22 +818,22 @@
         <v>0.981463491894324</v>
       </c>
       <c r="E6">
+        <v>0.981463491894324</v>
+      </c>
+      <c r="F6">
         <v>1.011837743297526</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <v>1.006379533789181</v>
+      </c>
+      <c r="H6">
+        <v>1.039166815458816</v>
+      </c>
+      <c r="I6">
+        <v>0.9831799671933976</v>
+      </c>
+      <c r="J6">
         <v>0.9931160977461116</v>
-      </c>
-      <c r="G6">
-        <v>1.039166815458816</v>
-      </c>
-      <c r="H6">
-        <v>0.9831799671933976</v>
-      </c>
-      <c r="I6">
-        <v>1.006379533789181</v>
-      </c>
-      <c r="J6">
-        <v>0.981463491894324</v>
       </c>
       <c r="K6">
         <v>0.9931160977461116</v>
@@ -974,7 +866,7 @@
         <v>1.002523941563226</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,25 +877,25 @@
         <v>1.000440142718342</v>
       </c>
       <c r="D7">
-        <v>0.9994035865902737</v>
+        <v>0.9994035865902736</v>
       </c>
       <c r="E7">
+        <v>0.9994035865902736</v>
+      </c>
+      <c r="F7">
         <v>0.9999995385447847</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <v>1.00012799176609</v>
+      </c>
+      <c r="H7">
+        <v>0.9999783092083485</v>
+      </c>
+      <c r="I7">
+        <v>0.9997387810836675</v>
+      </c>
+      <c r="J7">
         <v>1.000440142718342</v>
-      </c>
-      <c r="G7">
-        <v>0.999978309208348</v>
-      </c>
-      <c r="H7">
-        <v>0.9997387810836682</v>
-      </c>
-      <c r="I7">
-        <v>1.00012799176609</v>
-      </c>
-      <c r="J7">
-        <v>0.9994035865902737</v>
       </c>
       <c r="K7">
         <v>1.000440142718342</v>
@@ -1018,13 +910,13 @@
         <v>0.9997015625675292</v>
       </c>
       <c r="O7">
-        <v>0.9997139687395755</v>
+        <v>0.9997139687395752</v>
       </c>
       <c r="P7">
         <v>0.9999477559511337</v>
       </c>
       <c r="Q7">
-        <v>0.9999477559511337</v>
+        <v>0.9999477559511335</v>
       </c>
       <c r="R7">
         <v>1.000070852642936</v>
@@ -1033,10 +925,10 @@
         <v>1.000070852642936</v>
       </c>
       <c r="T7">
-        <v>0.9999480583185845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999480583185844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1050,55 +942,55 @@
         <v>0.9985878410207292</v>
       </c>
       <c r="E8">
-        <v>0.9999580540181675</v>
+        <v>0.9985878410207292</v>
       </c>
       <c r="F8">
+        <v>0.9999580540181668</v>
+      </c>
+      <c r="G8">
+        <v>1.000296732878558</v>
+      </c>
+      <c r="H8">
+        <v>0.9998242873535351</v>
+      </c>
+      <c r="I8">
+        <v>0.9994034590852856</v>
+      </c>
+      <c r="J8">
         <v>1.001119733448167</v>
-      </c>
-      <c r="G8">
-        <v>0.9998242873535343</v>
-      </c>
-      <c r="H8">
-        <v>0.9994034590852853</v>
-      </c>
-      <c r="I8">
-        <v>1.000296732878558</v>
-      </c>
-      <c r="J8">
-        <v>0.9985878410207292</v>
       </c>
       <c r="K8">
         <v>1.001119733448167</v>
       </c>
       <c r="L8">
-        <v>0.9999580540181675</v>
+        <v>0.9999580540181668</v>
       </c>
       <c r="M8">
-        <v>0.9992729475194484</v>
+        <v>0.999272947519448</v>
       </c>
       <c r="N8">
-        <v>0.9992729475194484</v>
+        <v>0.999272947519448</v>
       </c>
       <c r="O8">
-        <v>0.9993164513747274</v>
+        <v>0.9993164513747272</v>
       </c>
       <c r="P8">
-        <v>0.9998885428290212</v>
+        <v>0.9998885428290208</v>
       </c>
       <c r="Q8">
-        <v>0.9998885428290212</v>
+        <v>0.9998885428290208</v>
       </c>
       <c r="R8">
-        <v>1.000196340483808</v>
+        <v>1.000196340483807</v>
       </c>
       <c r="S8">
-        <v>1.000196340483808</v>
+        <v>1.000196340483807</v>
       </c>
       <c r="T8">
         <v>0.9998650179674069</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1109,25 +1001,25 @@
         <v>1.001702692535339</v>
       </c>
       <c r="D9">
-        <v>0.9976856196828471</v>
+        <v>0.9976856196828473</v>
       </c>
       <c r="E9">
+        <v>0.9976856196828473</v>
+      </c>
+      <c r="F9">
         <v>0.9999999811096965</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <v>1.000496396007587</v>
+      </c>
+      <c r="H9">
+        <v>0.9999133371962975</v>
+      </c>
+      <c r="I9">
+        <v>0.9989886453870236</v>
+      </c>
+      <c r="J9">
         <v>1.001702692535339</v>
-      </c>
-      <c r="G9">
-        <v>0.9999133371962975</v>
-      </c>
-      <c r="H9">
-        <v>0.9989886453870236</v>
-      </c>
-      <c r="I9">
-        <v>1.000496396007587</v>
-      </c>
-      <c r="J9">
-        <v>0.9976856196828471</v>
       </c>
       <c r="K9">
         <v>1.001702692535339</v>
@@ -1136,13 +1028,13 @@
         <v>0.9999999811096965</v>
       </c>
       <c r="M9">
-        <v>0.9988428003962717</v>
+        <v>0.9988428003962719</v>
       </c>
       <c r="N9">
-        <v>0.9988428003962717</v>
+        <v>0.9988428003962719</v>
       </c>
       <c r="O9">
-        <v>0.998891415393189</v>
+        <v>0.9988914153931892</v>
       </c>
       <c r="P9">
         <v>0.9997960977759609</v>
@@ -1160,7 +1052,7 @@
         <v>0.9997977786531318</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1174,22 +1066,22 @@
         <v>0.9953120702995987</v>
       </c>
       <c r="E10">
+        <v>0.9953120702995987</v>
+      </c>
+      <c r="F10">
         <v>0.9999738403656482</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <v>1.001001121413497</v>
+      </c>
+      <c r="H10">
+        <v>0.9997407343215965</v>
+      </c>
+      <c r="I10">
+        <v>0.9979672788625095</v>
+      </c>
+      <c r="J10">
         <v>1.003497422176263</v>
-      </c>
-      <c r="G10">
-        <v>0.9997407343215965</v>
-      </c>
-      <c r="H10">
-        <v>0.9979672788625095</v>
-      </c>
-      <c r="I10">
-        <v>1.001001121413497</v>
-      </c>
-      <c r="J10">
-        <v>0.9953120702995987</v>
       </c>
       <c r="K10">
         <v>1.003497422176263</v>
@@ -1222,7 +1114,7 @@
         <v>0.9995820779065188</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1236,22 +1128,22 @@
         <v>0.9915881753438976</v>
       </c>
       <c r="E11">
+        <v>0.9915881753438976</v>
+      </c>
+      <c r="F11">
         <v>0.9999987182507969</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <v>1.001801667355784</v>
+      </c>
+      <c r="H11">
+        <v>0.9996445299662958</v>
+      </c>
+      <c r="I11">
+        <v>0.9963393628301803</v>
+      </c>
+      <c r="J11">
         <v>1.00618286021359</v>
-      </c>
-      <c r="G11">
-        <v>0.9996445299662958</v>
-      </c>
-      <c r="H11">
-        <v>0.9963393628301803</v>
-      </c>
-      <c r="I11">
-        <v>1.001801667355784</v>
-      </c>
-      <c r="J11">
-        <v>0.9915881753438976</v>
       </c>
       <c r="K11">
         <v>1.00618286021359</v>
@@ -1284,7 +1176,7 @@
         <v>0.9992592189934243</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1295,25 +1187,25 @@
         <v>0.9877932451931219</v>
       </c>
       <c r="D12">
-        <v>0.9842976226294282</v>
+        <v>0.9842976226294285</v>
       </c>
       <c r="E12">
+        <v>0.9842976226294285</v>
+      </c>
+      <c r="F12">
         <v>1.009648920589846</v>
       </c>
-      <c r="F12">
+      <c r="G12">
+        <v>1.003277000515179</v>
+      </c>
+      <c r="H12">
+        <v>1.0123530879069</v>
+      </c>
+      <c r="I12">
+        <v>0.9958367111768501</v>
+      </c>
+      <c r="J12">
         <v>0.9877932451931219</v>
-      </c>
-      <c r="G12">
-        <v>1.0123530879069</v>
-      </c>
-      <c r="H12">
-        <v>0.9958367111768504</v>
-      </c>
-      <c r="I12">
-        <v>1.003277000515179</v>
-      </c>
-      <c r="J12">
-        <v>0.9842976226294282</v>
       </c>
       <c r="K12">
         <v>0.9877932451931219</v>
@@ -1322,10 +1214,10 @@
         <v>1.009648920589846</v>
       </c>
       <c r="M12">
-        <v>0.9969732716096373</v>
+        <v>0.9969732716096376</v>
       </c>
       <c r="N12">
-        <v>0.9969732716096373</v>
+        <v>0.9969732716096376</v>
       </c>
       <c r="O12">
         <v>0.9965944181320417</v>
@@ -1346,7 +1238,7 @@
         <v>0.9988677646685543</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1360,28 +1252,28 @@
         <v>1.008235246009658</v>
       </c>
       <c r="E13">
-        <v>0.9937204182804564</v>
+        <v>1.008235246009658</v>
       </c>
       <c r="F13">
+        <v>0.9937204182804563</v>
+      </c>
+      <c r="G13">
+        <v>0.9991714166296328</v>
+      </c>
+      <c r="H13">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="I13">
+        <v>0.9972891075569357</v>
+      </c>
+      <c r="J13">
         <v>1.012417350723668</v>
-      </c>
-      <c r="G13">
-        <v>1.001769513228698</v>
-      </c>
-      <c r="H13">
-        <v>0.9972891075569357</v>
-      </c>
-      <c r="I13">
-        <v>0.9991714166296328</v>
-      </c>
-      <c r="J13">
-        <v>1.008235246009658</v>
       </c>
       <c r="K13">
         <v>1.012417350723668</v>
       </c>
       <c r="L13">
-        <v>0.9937204182804564</v>
+        <v>0.9937204182804563</v>
       </c>
       <c r="M13">
         <v>1.000977832145057</v>
@@ -1390,7 +1282,7 @@
         <v>1.000977832145057</v>
       </c>
       <c r="O13">
-        <v>0.99974825728235</v>
+        <v>0.9997482572823498</v>
       </c>
       <c r="P13">
         <v>1.004791005004594</v>
@@ -1399,16 +1291,16 @@
         <v>1.004791005004594</v>
       </c>
       <c r="R13">
-        <v>1.006697591434363</v>
+        <v>1.006697591434362</v>
       </c>
       <c r="S13">
-        <v>1.006697591434363</v>
+        <v>1.006697591434362</v>
       </c>
       <c r="T13">
         <v>1.002100508738175</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1422,22 +1314,22 @@
         <v>0.3714423812481314</v>
       </c>
       <c r="E14">
+        <v>0.3714423812481314</v>
+      </c>
+      <c r="F14">
         <v>1.231504511976268</v>
       </c>
-      <c r="F14">
+      <c r="G14">
+        <v>1.171660200104622</v>
+      </c>
+      <c r="H14">
+        <v>1.666904030482522</v>
+      </c>
+      <c r="I14">
+        <v>0.6015906712504765</v>
+      </c>
+      <c r="J14">
         <v>1.026238597490308</v>
-      </c>
-      <c r="G14">
-        <v>1.666904030482522</v>
-      </c>
-      <c r="H14">
-        <v>0.6015906712504765</v>
-      </c>
-      <c r="I14">
-        <v>1.171660200104622</v>
-      </c>
-      <c r="J14">
-        <v>0.3714423812481314</v>
       </c>
       <c r="K14">
         <v>1.026238597490308</v>
@@ -1446,10 +1338,10 @@
         <v>1.231504511976268</v>
       </c>
       <c r="M14">
-        <v>0.8014734466121995</v>
+        <v>0.8014734466121994</v>
       </c>
       <c r="N14">
-        <v>0.8014734466121995</v>
+        <v>0.8014734466121994</v>
       </c>
       <c r="O14">
         <v>0.7348458548249585</v>
@@ -1470,7 +1362,7 @@
         <v>1.011556732092054</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1484,22 +1376,22 @@
         <v>0.7547194126561589</v>
       </c>
       <c r="E15">
+        <v>0.7547194126561589</v>
+      </c>
+      <c r="F15">
         <v>1.031417962512543</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <v>1.055008481145014</v>
+      </c>
+      <c r="H15">
+        <v>1.054495661141747</v>
+      </c>
+      <c r="I15">
+        <v>0.8896802287133405</v>
+      </c>
+      <c r="J15">
         <v>1.112333449944351</v>
-      </c>
-      <c r="G15">
-        <v>1.054495661141747</v>
-      </c>
-      <c r="H15">
-        <v>0.8896802287133405</v>
-      </c>
-      <c r="I15">
-        <v>1.055008481145014</v>
-      </c>
-      <c r="J15">
-        <v>0.7547194126561589</v>
       </c>
       <c r="K15">
         <v>1.112333449944351</v>
@@ -1532,7 +1424,7 @@
         <v>0.9829425326855256</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997853870358937</v>
+        <v>0.9779239065206921</v>
       </c>
       <c r="D16">
-        <v>1.000245392226936</v>
+        <v>0.9297101371306705</v>
       </c>
       <c r="E16">
-        <v>1.000050915806888</v>
+        <v>0.9297101371306705</v>
       </c>
       <c r="F16">
-        <v>0.9997853870358937</v>
+        <v>1.042015858196221</v>
       </c>
       <c r="G16">
-        <v>1.000353759583225</v>
+        <v>1.023330153758085</v>
       </c>
       <c r="H16">
-        <v>0.9999889302490159</v>
+        <v>1.136600985588456</v>
       </c>
       <c r="I16">
-        <v>0.9999734992881617</v>
+        <v>0.9395689379235928</v>
       </c>
       <c r="J16">
-        <v>1.000245392226936</v>
+        <v>0.9779239065206921</v>
       </c>
       <c r="K16">
-        <v>0.9997853870358937</v>
+        <v>0.9779239065206921</v>
       </c>
       <c r="L16">
-        <v>1.000050915806888</v>
+        <v>1.042015858196221</v>
       </c>
       <c r="M16">
-        <v>1.000148154016912</v>
+        <v>0.9858629976634459</v>
       </c>
       <c r="N16">
-        <v>1.000148154016912</v>
+        <v>0.9858629976634459</v>
       </c>
       <c r="O16">
-        <v>1.000095079427613</v>
+        <v>0.9704316444168283</v>
       </c>
       <c r="P16">
-        <v>1.000027231689906</v>
+        <v>0.9832166339491946</v>
       </c>
       <c r="Q16">
-        <v>1.000027231689906</v>
+        <v>0.9832166339491946</v>
       </c>
       <c r="R16">
-        <v>0.9999667705264029</v>
+        <v>0.9818934520920689</v>
       </c>
       <c r="S16">
-        <v>0.9999667705264029</v>
+        <v>0.9818934520920689</v>
       </c>
       <c r="T16">
-        <v>1.000066314031687</v>
+        <v>1.008191663186286</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001008076840504</v>
+        <v>0.9986921381420976</v>
       </c>
       <c r="D17">
-        <v>0.9988771609974559</v>
+        <v>0.9317481001566256</v>
       </c>
       <c r="E17">
-        <v>0.9998638699249708</v>
+        <v>0.9317481001566256</v>
       </c>
       <c r="F17">
-        <v>1.001008076840504</v>
+        <v>1.029161490494791</v>
       </c>
       <c r="G17">
-        <v>0.9993044706136848</v>
+        <v>1.02027829380569</v>
       </c>
       <c r="H17">
-        <v>0.9996953779571348</v>
+        <v>1.093258981699133</v>
       </c>
       <c r="I17">
-        <v>1.000197454765357</v>
+        <v>0.9499712209533472</v>
       </c>
       <c r="J17">
-        <v>0.9988771609974559</v>
+        <v>0.9986921381420976</v>
       </c>
       <c r="K17">
-        <v>1.001008076840504</v>
+        <v>0.9986921381420976</v>
       </c>
       <c r="L17">
-        <v>0.9998638699249708</v>
+        <v>1.029161490494791</v>
       </c>
       <c r="M17">
-        <v>0.9993705154612134</v>
+        <v>0.9804547953257081</v>
       </c>
       <c r="N17">
-        <v>0.9993705154612134</v>
+        <v>0.9804547953257081</v>
       </c>
       <c r="O17">
-        <v>0.9994788029598539</v>
+        <v>0.9702936038682545</v>
       </c>
       <c r="P17">
-        <v>0.9999163692543102</v>
+        <v>0.9865339095978379</v>
       </c>
       <c r="Q17">
-        <v>0.99991636925431</v>
+        <v>0.9865339095978379</v>
       </c>
       <c r="R17">
-        <v>1.000189296150858</v>
+        <v>0.9895734667339028</v>
       </c>
       <c r="S17">
-        <v>1.000189296150858</v>
+        <v>0.9895734667339028</v>
       </c>
       <c r="T17">
-        <v>0.9998244018498511</v>
+        <v>1.003851704208614</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9983271230102929</v>
+        <v>1.039832401332465</v>
       </c>
       <c r="D18">
-        <v>1.000014184114165</v>
+        <v>0.9361302720241798</v>
       </c>
       <c r="E18">
-        <v>1.001021369692388</v>
+        <v>0.9361302720241798</v>
       </c>
       <c r="F18">
-        <v>0.9983271230102929</v>
+        <v>1.003550009036452</v>
       </c>
       <c r="G18">
-        <v>1.003836650481525</v>
+        <v>1.014127962436331</v>
       </c>
       <c r="H18">
-        <v>0.9990806161380358</v>
+        <v>1.006908303967011</v>
       </c>
       <c r="I18">
-        <v>1.000235868042641</v>
+        <v>0.9708410058550518</v>
       </c>
       <c r="J18">
-        <v>1.000014184114165</v>
+        <v>1.039832401332465</v>
       </c>
       <c r="K18">
-        <v>0.9983271230102929</v>
+        <v>1.039832401332465</v>
       </c>
       <c r="L18">
-        <v>1.001021369692388</v>
+        <v>1.003550009036452</v>
       </c>
       <c r="M18">
-        <v>1.000517776903276</v>
+        <v>0.9698401405303159</v>
       </c>
       <c r="N18">
-        <v>1.000517776903276</v>
+        <v>0.9698401405303159</v>
       </c>
       <c r="O18">
-        <v>1.000038723314863</v>
+        <v>0.9701737623052278</v>
       </c>
       <c r="P18">
-        <v>0.9997875589389486</v>
+        <v>0.9931708941310323</v>
       </c>
       <c r="Q18">
-        <v>0.9997875589389486</v>
+        <v>0.9931708941310323</v>
       </c>
       <c r="R18">
-        <v>0.9994224499567846</v>
+        <v>1.00483627093139</v>
       </c>
       <c r="S18">
-        <v>0.9994224499567846</v>
+        <v>1.00483627093139</v>
       </c>
       <c r="T18">
-        <v>1.000419301913175</v>
+        <v>0.9952316591085819</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.051015554011811</v>
+      </c>
+      <c r="D19">
+        <v>0.9311732736351221</v>
+      </c>
+      <c r="E19">
+        <v>0.9311732736351221</v>
+      </c>
+      <c r="F19">
+        <v>0.9999672198178632</v>
+      </c>
+      <c r="G19">
+        <v>1.014850108136122</v>
+      </c>
+      <c r="H19">
+        <v>0.998181337150631</v>
+      </c>
+      <c r="I19">
+        <v>0.9695034339983337</v>
+      </c>
+      <c r="J19">
+        <v>1.051015554011811</v>
+      </c>
+      <c r="K19">
+        <v>1.051015554011811</v>
+      </c>
+      <c r="L19">
+        <v>0.9999672198178632</v>
+      </c>
+      <c r="M19">
+        <v>0.9655702467264926</v>
+      </c>
+      <c r="N19">
+        <v>0.9655702467264926</v>
+      </c>
+      <c r="O19">
+        <v>0.9668813091504397</v>
+      </c>
+      <c r="P19">
+        <v>0.9940520158215987</v>
+      </c>
+      <c r="Q19">
+        <v>0.9940520158215987</v>
+      </c>
+      <c r="R19">
+        <v>1.008292900369152</v>
+      </c>
+      <c r="S19">
+        <v>1.008292900369152</v>
+      </c>
+      <c r="T19">
+        <v>0.9941151544583139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9997853870358937</v>
+      </c>
+      <c r="D20">
+        <v>1.000245392226936</v>
+      </c>
+      <c r="E20">
+        <v>1.000245392226936</v>
+      </c>
+      <c r="F20">
+        <v>1.000050915806888</v>
+      </c>
+      <c r="G20">
+        <v>0.9999734992881617</v>
+      </c>
+      <c r="H20">
+        <v>1.000353759583226</v>
+      </c>
+      <c r="I20">
+        <v>0.9999889302490159</v>
+      </c>
+      <c r="J20">
+        <v>0.9997853870358937</v>
+      </c>
+      <c r="K20">
+        <v>0.9997853870358937</v>
+      </c>
+      <c r="L20">
+        <v>1.000050915806888</v>
+      </c>
+      <c r="M20">
+        <v>1.000148154016912</v>
+      </c>
+      <c r="N20">
+        <v>1.000148154016912</v>
+      </c>
+      <c r="O20">
+        <v>1.000095079427614</v>
+      </c>
+      <c r="P20">
+        <v>1.000027231689906</v>
+      </c>
+      <c r="Q20">
+        <v>1.000027231689906</v>
+      </c>
+      <c r="R20">
+        <v>0.9999667705264029</v>
+      </c>
+      <c r="S20">
+        <v>0.9999667705264029</v>
+      </c>
+      <c r="T20">
+        <v>1.000066314031687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.001008076840504</v>
+      </c>
+      <c r="D21">
+        <v>0.998877160997456</v>
+      </c>
+      <c r="E21">
+        <v>0.998877160997456</v>
+      </c>
+      <c r="F21">
+        <v>0.9998638699249703</v>
+      </c>
+      <c r="G21">
+        <v>1.000197454765357</v>
+      </c>
+      <c r="H21">
+        <v>0.9993044706136851</v>
+      </c>
+      <c r="I21">
+        <v>0.9996953779571349</v>
+      </c>
+      <c r="J21">
+        <v>1.001008076840504</v>
+      </c>
+      <c r="K21">
+        <v>1.001008076840504</v>
+      </c>
+      <c r="L21">
+        <v>0.9998638699249703</v>
+      </c>
+      <c r="M21">
+        <v>0.9993705154612131</v>
+      </c>
+      <c r="N21">
+        <v>0.9993705154612131</v>
+      </c>
+      <c r="O21">
+        <v>0.9994788029598537</v>
+      </c>
+      <c r="P21">
+        <v>0.9999163692543099</v>
+      </c>
+      <c r="Q21">
+        <v>0.99991636925431</v>
+      </c>
+      <c r="R21">
+        <v>1.000189296150858</v>
+      </c>
+      <c r="S21">
+        <v>1.000189296150858</v>
+      </c>
+      <c r="T21">
+        <v>0.9998244018498511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9983271230102929</v>
+      </c>
+      <c r="D22">
+        <v>1.000014184114165</v>
+      </c>
+      <c r="E22">
+        <v>1.000014184114165</v>
+      </c>
+      <c r="F22">
+        <v>1.001021369692388</v>
+      </c>
+      <c r="G22">
+        <v>1.000235868042641</v>
+      </c>
+      <c r="H22">
+        <v>1.003836650481526</v>
+      </c>
+      <c r="I22">
+        <v>0.9990806161380359</v>
+      </c>
+      <c r="J22">
+        <v>0.9983271230102929</v>
+      </c>
+      <c r="K22">
+        <v>0.9983271230102929</v>
+      </c>
+      <c r="L22">
+        <v>1.001021369692388</v>
+      </c>
+      <c r="M22">
+        <v>1.000517776903276</v>
+      </c>
+      <c r="N22">
+        <v>1.000517776903276</v>
+      </c>
+      <c r="O22">
+        <v>1.000038723314863</v>
+      </c>
+      <c r="P22">
+        <v>0.9997875589389484</v>
+      </c>
+      <c r="Q22">
+        <v>0.9997875589389486</v>
+      </c>
+      <c r="R22">
+        <v>0.9994224499567846</v>
+      </c>
+      <c r="S22">
+        <v>0.9994224499567846</v>
+      </c>
+      <c r="T22">
+        <v>1.000419301913175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9926963390128842</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>1.002882669257294</v>
       </c>
-      <c r="E19">
+      <c r="E23">
+        <v>1.002882669257294</v>
+      </c>
+      <c r="F23">
         <v>1.003321543673509</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.000223808428107</v>
+      </c>
+      <c r="H23">
+        <v>1.013245248055121</v>
+      </c>
+      <c r="I23">
+        <v>0.9979285438023731</v>
+      </c>
+      <c r="J23">
         <v>0.9926963390128842</v>
       </c>
-      <c r="G19">
-        <v>1.013245248055121</v>
-      </c>
-      <c r="H19">
-        <v>0.9979285438023731</v>
-      </c>
-      <c r="I19">
-        <v>1.000223808428107</v>
-      </c>
-      <c r="J19">
-        <v>1.002882669257294</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9926963390128842</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.003321543673509</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.003102106465402</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.003102106465402</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.001377585577725</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9996335173145624</v>
       </c>
-      <c r="Q19">
-        <v>0.9996335173145624</v>
-      </c>
-      <c r="R19">
-        <v>0.9978992227391428</v>
-      </c>
-      <c r="S19">
-        <v>0.9978992227391428</v>
-      </c>
-      <c r="T19">
+      <c r="Q23">
+        <v>0.9996335173145625</v>
+      </c>
+      <c r="R23">
+        <v>0.997899222739143</v>
+      </c>
+      <c r="S23">
+        <v>0.997899222739143</v>
+      </c>
+      <c r="T23">
         <v>1.001716358704881</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/RGossF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9985454435190539</v>
+        <v>1.044689889834293</v>
       </c>
       <c r="D3">
-        <v>0.9966869447305806</v>
+        <v>0.933318173451009</v>
       </c>
       <c r="E3">
-        <v>0.9966869447305806</v>
+        <v>0.933318173451009</v>
       </c>
       <c r="F3">
-        <v>1.00224145508353</v>
+        <v>1.002281219164263</v>
       </c>
       <c r="G3">
-        <v>1.001163897288122</v>
+        <v>1.014645260533142</v>
       </c>
       <c r="H3">
-        <v>1.007416023718004</v>
+        <v>1.004140352694527</v>
       </c>
       <c r="I3">
-        <v>0.9969076251060773</v>
+        <v>0.9697317517651298</v>
       </c>
       <c r="J3">
-        <v>0.9985454435190539</v>
+        <v>1.044689889834293</v>
       </c>
       <c r="K3">
-        <v>0.9985454435190539</v>
+        <v>1.044689889834293</v>
       </c>
       <c r="L3">
-        <v>1.00224145508353</v>
+        <v>1.002281219164263</v>
       </c>
       <c r="M3">
-        <v>0.9994641999070555</v>
+        <v>0.967799696307636</v>
       </c>
       <c r="N3">
-        <v>0.9994641999070555</v>
+        <v>0.967799696307636</v>
       </c>
       <c r="O3">
-        <v>0.9986120083067295</v>
+        <v>0.9684437147934672</v>
       </c>
       <c r="P3">
-        <v>0.9991579477777216</v>
+        <v>0.9934297608165216</v>
       </c>
       <c r="Q3">
-        <v>0.9991579477777216</v>
+        <v>0.9934297608165216</v>
       </c>
       <c r="R3">
-        <v>0.9990048217130547</v>
+        <v>1.006244793070964</v>
       </c>
       <c r="S3">
-        <v>0.9990048217130547</v>
+        <v>1.006244793070964</v>
       </c>
       <c r="T3">
-        <v>1.000493564907561</v>
+        <v>0.9948011079070606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9972743134717317</v>
+        <v>1.041949004025346</v>
       </c>
       <c r="D4">
-        <v>0.9934429749911399</v>
+        <v>0.9354573090309362</v>
       </c>
       <c r="E4">
-        <v>0.9934429749911399</v>
+        <v>0.9354573090309362</v>
       </c>
       <c r="F4">
-        <v>1.004318576882614</v>
+        <v>1.002785919258294</v>
       </c>
       <c r="G4">
-        <v>1.002264853654778</v>
+        <v>1.014203725836751</v>
       </c>
       <c r="H4">
-        <v>1.014153443099097</v>
+        <v>1.005121045464038</v>
       </c>
       <c r="I4">
-        <v>0.9940340670819293</v>
+        <v>0.9706991134588137</v>
       </c>
       <c r="J4">
-        <v>0.9972743134717317</v>
+        <v>1.041949004025346</v>
       </c>
       <c r="K4">
-        <v>0.9972743134717317</v>
+        <v>1.041949004025346</v>
       </c>
       <c r="L4">
-        <v>1.004318576882614</v>
+        <v>1.002785919258294</v>
       </c>
       <c r="M4">
-        <v>0.9988807759368772</v>
+        <v>0.969121614144615</v>
       </c>
       <c r="N4">
-        <v>0.9988807759368772</v>
+        <v>0.969121614144615</v>
       </c>
       <c r="O4">
-        <v>0.9972652063185613</v>
+        <v>0.9696474472493479</v>
       </c>
       <c r="P4">
-        <v>0.9983452884484953</v>
+        <v>0.9933974107715254</v>
       </c>
       <c r="Q4">
-        <v>0.9983452884484952</v>
+        <v>0.9933974107715254</v>
       </c>
       <c r="R4">
-        <v>0.9980775447043043</v>
+        <v>1.005535309084981</v>
       </c>
       <c r="S4">
-        <v>0.9980775447043043</v>
+        <v>1.005535309084981</v>
       </c>
       <c r="T4">
-        <v>1.000914704863548</v>
+        <v>0.9950360195123631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9951399788991644</v>
+        <v>1.050298782102424</v>
       </c>
       <c r="D5">
-        <v>0.9873848338180319</v>
+        <v>0.928621043153637</v>
       </c>
       <c r="E5">
-        <v>0.9873848338180319</v>
+        <v>0.928621043153637</v>
       </c>
       <c r="F5">
-        <v>1.008131676047657</v>
+        <v>1.0013475487062</v>
       </c>
       <c r="G5">
-        <v>1.004343998449982</v>
+        <v>1.01561903973046</v>
       </c>
       <c r="H5">
-        <v>1.026845182882938</v>
+        <v>1.002281781401617</v>
       </c>
       <c r="I5">
-        <v>0.988545513272996</v>
+        <v>0.9676271620215641</v>
       </c>
       <c r="J5">
-        <v>0.9951399788991644</v>
+        <v>1.050298782102424</v>
       </c>
       <c r="K5">
-        <v>0.9951399788991644</v>
+        <v>1.050298782102424</v>
       </c>
       <c r="L5">
-        <v>1.008131676047657</v>
+        <v>1.0013475487062</v>
       </c>
       <c r="M5">
-        <v>0.9977582549328445</v>
+        <v>0.9649842959299186</v>
       </c>
       <c r="N5">
-        <v>0.9977582549328445</v>
+        <v>0.9649842959299186</v>
       </c>
       <c r="O5">
-        <v>0.9946873410462284</v>
+        <v>0.9658652512938004</v>
       </c>
       <c r="P5">
-        <v>0.9968854962549512</v>
+        <v>0.9934224579874202</v>
       </c>
       <c r="Q5">
-        <v>0.9968854962549512</v>
+        <v>0.9934224579874202</v>
       </c>
       <c r="R5">
-        <v>0.9964491169160045</v>
+        <v>1.007641539016171</v>
       </c>
       <c r="S5">
-        <v>0.9964491169160045</v>
+        <v>1.007641539016171</v>
       </c>
       <c r="T5">
-        <v>1.001731863895128</v>
+        <v>0.9942992261859835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9931160977461116</v>
+        <v>1.056015804943182</v>
       </c>
       <c r="D6">
-        <v>0.981463491894324</v>
+        <v>0.9234805935795452</v>
       </c>
       <c r="E6">
-        <v>0.981463491894324</v>
+        <v>0.9234805935795452</v>
       </c>
       <c r="F6">
-        <v>1.011837743297526</v>
+        <v>1.000505281818183</v>
       </c>
       <c r="G6">
-        <v>1.006379533789181</v>
+        <v>1.016689098977272</v>
       </c>
       <c r="H6">
-        <v>1.039166815458816</v>
+        <v>1.000551054545455</v>
       </c>
       <c r="I6">
-        <v>0.9831799671933976</v>
+        <v>0.965344050284091</v>
       </c>
       <c r="J6">
-        <v>0.9931160977461116</v>
+        <v>1.056015804943182</v>
       </c>
       <c r="K6">
-        <v>0.9931160977461116</v>
+        <v>1.056015804943182</v>
       </c>
       <c r="L6">
-        <v>1.011837743297526</v>
+        <v>1.000505281818183</v>
       </c>
       <c r="M6">
-        <v>0.9966506175959251</v>
+        <v>0.9619929376988638</v>
       </c>
       <c r="N6">
-        <v>0.9966506175959251</v>
+        <v>0.9619929376988638</v>
       </c>
       <c r="O6">
-        <v>0.9921604007950826</v>
+        <v>0.9631099752272729</v>
       </c>
       <c r="P6">
-        <v>0.995472444312654</v>
+        <v>0.9933338934469701</v>
       </c>
       <c r="Q6">
-        <v>0.995472444312654</v>
+        <v>0.9933338934469701</v>
       </c>
       <c r="R6">
-        <v>0.9948833576710184</v>
+        <v>1.009004371321023</v>
       </c>
       <c r="S6">
-        <v>0.9948833576710184</v>
+        <v>1.009004371321023</v>
       </c>
       <c r="T6">
-        <v>1.002523941563226</v>
+        <v>0.9937643140246214</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000440142718342</v>
+        <v>0.9049232473776662</v>
       </c>
       <c r="D7">
-        <v>0.9994035865902736</v>
+        <v>1.566551198490117</v>
       </c>
       <c r="E7">
-        <v>0.9994035865902736</v>
+        <v>1.566551198490117</v>
       </c>
       <c r="F7">
-        <v>0.9999995385447847</v>
+        <v>0.837046826727015</v>
       </c>
       <c r="G7">
-        <v>1.00012799176609</v>
+        <v>0.8568358698694142</v>
       </c>
       <c r="H7">
-        <v>0.9999783092083485</v>
+        <v>0.5796025420066054</v>
       </c>
       <c r="I7">
-        <v>0.9997387810836675</v>
+        <v>1.313352363369763</v>
       </c>
       <c r="J7">
-        <v>1.000440142718342</v>
+        <v>0.9049232473776662</v>
       </c>
       <c r="K7">
-        <v>1.000440142718342</v>
+        <v>0.9049232473776662</v>
       </c>
       <c r="L7">
-        <v>0.9999995385447847</v>
+        <v>0.837046826727015</v>
       </c>
       <c r="M7">
-        <v>0.9997015625675292</v>
+        <v>1.201799012608566</v>
       </c>
       <c r="N7">
-        <v>0.9997015625675292</v>
+        <v>1.201799012608566</v>
       </c>
       <c r="O7">
-        <v>0.9997139687395752</v>
+        <v>1.238983462862298</v>
       </c>
       <c r="P7">
-        <v>0.9999477559511337</v>
+        <v>1.102840424198266</v>
       </c>
       <c r="Q7">
-        <v>0.9999477559511335</v>
+        <v>1.102840424198266</v>
       </c>
       <c r="R7">
-        <v>1.000070852642936</v>
+        <v>1.053361129993116</v>
       </c>
       <c r="S7">
-        <v>1.000070852642936</v>
+        <v>1.053361129993116</v>
       </c>
       <c r="T7">
-        <v>0.9999480583185844</v>
+        <v>1.009718674640097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001119733448167</v>
+        <v>0.9075177189352477</v>
       </c>
       <c r="D8">
-        <v>0.9985878410207292</v>
+        <v>1.560709027560744</v>
       </c>
       <c r="E8">
-        <v>0.9985878410207292</v>
+        <v>1.560709027560744</v>
       </c>
       <c r="F8">
-        <v>0.9999580540181668</v>
+        <v>0.8379125430050716</v>
       </c>
       <c r="G8">
-        <v>1.000296732878558</v>
+        <v>0.8582055962772724</v>
       </c>
       <c r="H8">
-        <v>0.9998242873535351</v>
+        <v>0.5817437372523757</v>
       </c>
       <c r="I8">
-        <v>0.9994034590852856</v>
+        <v>1.31044248474102</v>
       </c>
       <c r="J8">
-        <v>1.001119733448167</v>
+        <v>0.9075177189352477</v>
       </c>
       <c r="K8">
-        <v>1.001119733448167</v>
+        <v>0.9075177189352477</v>
       </c>
       <c r="L8">
-        <v>0.9999580540181668</v>
+        <v>0.8379125430050716</v>
       </c>
       <c r="M8">
-        <v>0.999272947519448</v>
+        <v>1.199310785282908</v>
       </c>
       <c r="N8">
-        <v>0.999272947519448</v>
+        <v>1.199310785282908</v>
       </c>
       <c r="O8">
-        <v>0.9993164513747272</v>
+        <v>1.236354685102279</v>
       </c>
       <c r="P8">
-        <v>0.9998885428290208</v>
+        <v>1.102046429833688</v>
       </c>
       <c r="Q8">
-        <v>0.9998885428290208</v>
+        <v>1.102046429833688</v>
       </c>
       <c r="R8">
-        <v>1.000196340483807</v>
+        <v>1.053414252109078</v>
       </c>
       <c r="S8">
-        <v>1.000196340483807</v>
+        <v>1.053414252109078</v>
       </c>
       <c r="T8">
-        <v>0.9998650179674069</v>
+        <v>1.009421851295289</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001702692535339</v>
+        <v>0.9094623822270718</v>
       </c>
       <c r="D9">
-        <v>0.9976856196828473</v>
+        <v>1.556386190233374</v>
       </c>
       <c r="E9">
-        <v>0.9976856196828473</v>
+        <v>1.556386190233374</v>
       </c>
       <c r="F9">
-        <v>0.9999999811096965</v>
+        <v>0.8385477262300208</v>
       </c>
       <c r="G9">
-        <v>1.000496396007587</v>
+        <v>0.8592225520193427</v>
       </c>
       <c r="H9">
-        <v>0.9999133371962975</v>
+        <v>0.5833432993870958</v>
       </c>
       <c r="I9">
-        <v>0.9989886453870236</v>
+        <v>1.308273931120108</v>
       </c>
       <c r="J9">
-        <v>1.001702692535339</v>
+        <v>0.9094623822270718</v>
       </c>
       <c r="K9">
-        <v>1.001702692535339</v>
+        <v>0.9094623822270718</v>
       </c>
       <c r="L9">
-        <v>0.9999999811096965</v>
+        <v>0.8385477262300208</v>
       </c>
       <c r="M9">
-        <v>0.9988428003962719</v>
+        <v>1.197466958231697</v>
       </c>
       <c r="N9">
-        <v>0.9988428003962719</v>
+        <v>1.197466958231697</v>
       </c>
       <c r="O9">
-        <v>0.9988914153931892</v>
+        <v>1.234402615861168</v>
       </c>
       <c r="P9">
-        <v>0.9997960977759609</v>
+        <v>1.101465432896822</v>
       </c>
       <c r="Q9">
-        <v>0.9997960977759609</v>
+        <v>1.101465432896822</v>
       </c>
       <c r="R9">
-        <v>1.000272746465805</v>
+        <v>1.053464670229384</v>
       </c>
       <c r="S9">
-        <v>1.000272746465805</v>
+        <v>1.053464670229384</v>
       </c>
       <c r="T9">
-        <v>0.9997977786531318</v>
+        <v>1.009206013536169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.003497422176263</v>
+        <v>0.9166621451628171</v>
       </c>
       <c r="D10">
-        <v>0.9953120702995987</v>
+        <v>1.540347536162274</v>
       </c>
       <c r="E10">
-        <v>0.9953120702995987</v>
+        <v>1.540347536162274</v>
       </c>
       <c r="F10">
-        <v>0.9999738403656482</v>
+        <v>0.8409077150139369</v>
       </c>
       <c r="G10">
-        <v>1.001001121413497</v>
+        <v>0.8629935533886098</v>
       </c>
       <c r="H10">
-        <v>0.9997407343215965</v>
+        <v>0.5892686436744903</v>
       </c>
       <c r="I10">
-        <v>0.9979672788625095</v>
+        <v>1.30023763840552</v>
       </c>
       <c r="J10">
-        <v>1.003497422176263</v>
+        <v>0.9166621451628171</v>
       </c>
       <c r="K10">
-        <v>1.003497422176263</v>
+        <v>0.9166621451628171</v>
       </c>
       <c r="L10">
-        <v>0.9999738403656482</v>
+        <v>0.8409077150139369</v>
       </c>
       <c r="M10">
-        <v>0.9976429553326234</v>
+        <v>1.190627625588106</v>
       </c>
       <c r="N10">
-        <v>0.9976429553326234</v>
+        <v>1.190627625588106</v>
       </c>
       <c r="O10">
-        <v>0.9977510631759188</v>
+        <v>1.227164296527244</v>
       </c>
       <c r="P10">
-        <v>0.9995944442805033</v>
+        <v>1.099305798779676</v>
       </c>
       <c r="Q10">
-        <v>0.9995944442805035</v>
+        <v>1.099305798779676</v>
       </c>
       <c r="R10">
-        <v>1.000570188754443</v>
+        <v>1.053644885375461</v>
       </c>
       <c r="S10">
-        <v>1.000570188754443</v>
+        <v>1.053644885375461</v>
       </c>
       <c r="T10">
-        <v>0.9995820779065188</v>
+        <v>1.008402871967941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00618286021359</v>
+        <v>0.9982634527254259</v>
       </c>
       <c r="D11">
-        <v>0.9915881753438976</v>
+        <v>0.9984134713364649</v>
       </c>
       <c r="E11">
-        <v>0.9915881753438976</v>
+        <v>0.9984134713364649</v>
       </c>
       <c r="F11">
-        <v>0.9999987182507969</v>
+        <v>1.0017089115085</v>
       </c>
       <c r="G11">
-        <v>1.001801667355784</v>
+        <v>1.000704401219166</v>
       </c>
       <c r="H11">
-        <v>0.9996445299662958</v>
+        <v>1.005903916452593</v>
       </c>
       <c r="I11">
-        <v>0.9963393628301803</v>
+        <v>0.997955379753225</v>
       </c>
       <c r="J11">
-        <v>1.00618286021359</v>
+        <v>0.9982634527254259</v>
       </c>
       <c r="K11">
-        <v>1.00618286021359</v>
+        <v>0.9982634527254259</v>
       </c>
       <c r="L11">
-        <v>0.9999987182507969</v>
+        <v>1.0017089115085</v>
       </c>
       <c r="M11">
-        <v>0.9957934467973473</v>
+        <v>1.000061191422482</v>
       </c>
       <c r="N11">
-        <v>0.9957934467973473</v>
+        <v>1.000061191422482</v>
       </c>
       <c r="O11">
-        <v>0.9959754188082917</v>
+        <v>0.9993592541993966</v>
       </c>
       <c r="P11">
-        <v>0.9992565846027617</v>
+        <v>0.9994619451901302</v>
       </c>
       <c r="Q11">
-        <v>0.9992565846027617</v>
+        <v>0.9994619451901302</v>
       </c>
       <c r="R11">
-        <v>1.000988153505469</v>
+        <v>0.9991623220739541</v>
       </c>
       <c r="S11">
-        <v>1.000988153505469</v>
+        <v>0.9991623220739541</v>
       </c>
       <c r="T11">
-        <v>0.9992592189934243</v>
+        <v>1.000491588832563</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9877932451931219</v>
+        <v>0.9988035830835199</v>
       </c>
       <c r="D12">
-        <v>0.9842976226294285</v>
+        <v>1.000955226286497</v>
       </c>
       <c r="E12">
-        <v>0.9842976226294285</v>
+        <v>1.000955226286497</v>
       </c>
       <c r="F12">
-        <v>1.009648920589846</v>
+        <v>1.00038813351863</v>
       </c>
       <c r="G12">
-        <v>1.003277000515179</v>
+        <v>0.9999261626424412</v>
       </c>
       <c r="H12">
-        <v>1.0123530879069</v>
+        <v>1.001834727883463</v>
       </c>
       <c r="I12">
-        <v>0.9958367111768501</v>
+        <v>0.9998831028699385</v>
       </c>
       <c r="J12">
-        <v>0.9877932451931219</v>
+        <v>0.9988035830835199</v>
       </c>
       <c r="K12">
-        <v>0.9877932451931219</v>
+        <v>0.9988035830835199</v>
       </c>
       <c r="L12">
-        <v>1.009648920589846</v>
+        <v>1.00038813351863</v>
       </c>
       <c r="M12">
-        <v>0.9969732716096376</v>
+        <v>1.000671679902563</v>
       </c>
       <c r="N12">
-        <v>0.9969732716096376</v>
+        <v>1.000671679902563</v>
       </c>
       <c r="O12">
-        <v>0.9965944181320417</v>
+        <v>1.000408820891688</v>
       </c>
       <c r="P12">
-        <v>0.9939132628041323</v>
+        <v>1.000048980962882</v>
       </c>
       <c r="Q12">
-        <v>0.9939132628041323</v>
+        <v>1.000048980962882</v>
       </c>
       <c r="R12">
-        <v>0.9923832584013796</v>
+        <v>0.9997376314930415</v>
       </c>
       <c r="S12">
-        <v>0.9923832584013796</v>
+        <v>0.9997376314930415</v>
       </c>
       <c r="T12">
-        <v>0.9988677646685543</v>
+        <v>1.000298489380748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.012417350723668</v>
+        <v>0.9960113807525116</v>
       </c>
       <c r="D13">
-        <v>1.008235246009658</v>
+        <v>1.001321786604771</v>
       </c>
       <c r="E13">
-        <v>1.008235246009658</v>
+        <v>1.001321786604771</v>
       </c>
       <c r="F13">
-        <v>0.9937204182804563</v>
+        <v>1.002019941841701</v>
       </c>
       <c r="G13">
-        <v>0.9991714166296328</v>
+        <v>1.000268167690841</v>
       </c>
       <c r="H13">
-        <v>1.001769513228698</v>
+        <v>1.008215441308834</v>
       </c>
       <c r="I13">
-        <v>0.9972891075569357</v>
+        <v>0.99840937365411</v>
       </c>
       <c r="J13">
-        <v>1.012417350723668</v>
+        <v>0.9960113807525116</v>
       </c>
       <c r="K13">
-        <v>1.012417350723668</v>
+        <v>0.9960113807525116</v>
       </c>
       <c r="L13">
-        <v>0.9937204182804563</v>
+        <v>1.002019941841701</v>
       </c>
       <c r="M13">
-        <v>1.000977832145057</v>
+        <v>1.001670864223236</v>
       </c>
       <c r="N13">
-        <v>1.000977832145057</v>
+        <v>1.001670864223236</v>
       </c>
       <c r="O13">
-        <v>0.9997482572823498</v>
+        <v>1.000583700700194</v>
       </c>
       <c r="P13">
-        <v>1.004791005004594</v>
+        <v>0.9997843697329948</v>
       </c>
       <c r="Q13">
-        <v>1.004791005004594</v>
+        <v>0.9997843697329948</v>
       </c>
       <c r="R13">
-        <v>1.006697591434362</v>
+        <v>0.9988411224878739</v>
       </c>
       <c r="S13">
-        <v>1.006697591434362</v>
+        <v>0.9988411224878739</v>
       </c>
       <c r="T13">
-        <v>1.002100508738175</v>
+        <v>1.001041015308795</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.026238597490308</v>
+        <v>0.9963396183061188</v>
       </c>
       <c r="D14">
-        <v>0.3714423812481314</v>
+        <v>0.9905532614377063</v>
       </c>
       <c r="E14">
-        <v>0.3714423812481314</v>
+        <v>0.9905532614377063</v>
       </c>
       <c r="F14">
-        <v>1.231504511976268</v>
+        <v>1.006098344567958</v>
       </c>
       <c r="G14">
-        <v>1.171660200104622</v>
+        <v>1.003253227033214</v>
       </c>
       <c r="H14">
-        <v>1.666904030482522</v>
+        <v>1.020113606274486</v>
       </c>
       <c r="I14">
-        <v>0.6015906712504765</v>
+        <v>0.9914243300003862</v>
       </c>
       <c r="J14">
-        <v>1.026238597490308</v>
+        <v>0.9963396183061188</v>
       </c>
       <c r="K14">
-        <v>1.026238597490308</v>
+        <v>0.9963396183061188</v>
       </c>
       <c r="L14">
-        <v>1.231504511976268</v>
+        <v>1.006098344567958</v>
       </c>
       <c r="M14">
-        <v>0.8014734466121994</v>
+        <v>0.9983258030028321</v>
       </c>
       <c r="N14">
-        <v>0.8014734466121994</v>
+        <v>0.9983258030028321</v>
       </c>
       <c r="O14">
-        <v>0.7348458548249585</v>
+        <v>0.9960253120020169</v>
       </c>
       <c r="P14">
-        <v>0.8763951635715689</v>
+        <v>0.9976637414372611</v>
       </c>
       <c r="Q14">
-        <v>0.8763951635715689</v>
+        <v>0.9976637414372611</v>
       </c>
       <c r="R14">
-        <v>0.9138560220512537</v>
+        <v>0.9973327106544756</v>
       </c>
       <c r="S14">
-        <v>0.9138560220512537</v>
+        <v>0.9973327106544756</v>
       </c>
       <c r="T14">
-        <v>1.011556732092054</v>
+        <v>1.001297064603312</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.112333449944351</v>
+        <v>0.9985454435190539</v>
       </c>
       <c r="D15">
-        <v>0.7547194126561589</v>
+        <v>0.9966869447305806</v>
       </c>
       <c r="E15">
-        <v>0.7547194126561589</v>
+        <v>0.9966869447305806</v>
       </c>
       <c r="F15">
-        <v>1.031417962512543</v>
+        <v>1.00224145508353</v>
       </c>
       <c r="G15">
-        <v>1.055008481145014</v>
+        <v>1.001163897288122</v>
       </c>
       <c r="H15">
-        <v>1.054495661141747</v>
+        <v>1.007416023718004</v>
       </c>
       <c r="I15">
-        <v>0.8896802287133405</v>
+        <v>0.9969076251060773</v>
       </c>
       <c r="J15">
-        <v>1.112333449944351</v>
+        <v>0.9985454435190539</v>
       </c>
       <c r="K15">
-        <v>1.112333449944351</v>
+        <v>0.9985454435190539</v>
       </c>
       <c r="L15">
-        <v>1.031417962512543</v>
+        <v>1.00224145508353</v>
       </c>
       <c r="M15">
-        <v>0.8930686875843509</v>
+        <v>0.9994641999070555</v>
       </c>
       <c r="N15">
-        <v>0.8930686875843509</v>
+        <v>0.9994641999070555</v>
       </c>
       <c r="O15">
-        <v>0.8919392012940142</v>
+        <v>0.9986120083067295</v>
       </c>
       <c r="P15">
-        <v>0.9661569417043511</v>
+        <v>0.9991579477777216</v>
       </c>
       <c r="Q15">
-        <v>0.9661569417043511</v>
+        <v>0.9991579477777216</v>
       </c>
       <c r="R15">
-        <v>1.002701068764351</v>
+        <v>0.9990048217130547</v>
       </c>
       <c r="S15">
-        <v>1.002701068764351</v>
+        <v>0.9990048217130547</v>
       </c>
       <c r="T15">
-        <v>0.9829425326855256</v>
+        <v>1.000493564907561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9779239065206921</v>
+        <v>0.9972743134717317</v>
       </c>
       <c r="D16">
-        <v>0.9297101371306705</v>
+        <v>0.9934429749911399</v>
       </c>
       <c r="E16">
-        <v>0.9297101371306705</v>
+        <v>0.9934429749911399</v>
       </c>
       <c r="F16">
-        <v>1.042015858196221</v>
+        <v>1.004318576882614</v>
       </c>
       <c r="G16">
-        <v>1.023330153758085</v>
+        <v>1.002264853654778</v>
       </c>
       <c r="H16">
-        <v>1.136600985588456</v>
+        <v>1.014153443099097</v>
       </c>
       <c r="I16">
-        <v>0.9395689379235928</v>
+        <v>0.9940340670819293</v>
       </c>
       <c r="J16">
-        <v>0.9779239065206921</v>
+        <v>0.9972743134717317</v>
       </c>
       <c r="K16">
-        <v>0.9779239065206921</v>
+        <v>0.9972743134717317</v>
       </c>
       <c r="L16">
-        <v>1.042015858196221</v>
+        <v>1.004318576882614</v>
       </c>
       <c r="M16">
-        <v>0.9858629976634459</v>
+        <v>0.9988807759368772</v>
       </c>
       <c r="N16">
-        <v>0.9858629976634459</v>
+        <v>0.9988807759368772</v>
       </c>
       <c r="O16">
-        <v>0.9704316444168283</v>
+        <v>0.9972652063185613</v>
       </c>
       <c r="P16">
-        <v>0.9832166339491946</v>
+        <v>0.9983452884484953</v>
       </c>
       <c r="Q16">
-        <v>0.9832166339491946</v>
+        <v>0.9983452884484952</v>
       </c>
       <c r="R16">
-        <v>0.9818934520920689</v>
+        <v>0.9980775447043043</v>
       </c>
       <c r="S16">
-        <v>0.9818934520920689</v>
+        <v>0.9980775447043043</v>
       </c>
       <c r="T16">
-        <v>1.008191663186286</v>
+        <v>1.000914704863548</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9986921381420976</v>
+        <v>0.9951399788991644</v>
       </c>
       <c r="D17">
-        <v>0.9317481001566256</v>
+        <v>0.9873848338180319</v>
       </c>
       <c r="E17">
-        <v>0.9317481001566256</v>
+        <v>0.9873848338180319</v>
       </c>
       <c r="F17">
-        <v>1.029161490494791</v>
+        <v>1.008131676047657</v>
       </c>
       <c r="G17">
-        <v>1.02027829380569</v>
+        <v>1.004343998449982</v>
       </c>
       <c r="H17">
-        <v>1.093258981699133</v>
+        <v>1.026845182882938</v>
       </c>
       <c r="I17">
-        <v>0.9499712209533472</v>
+        <v>0.988545513272996</v>
       </c>
       <c r="J17">
-        <v>0.9986921381420976</v>
+        <v>0.9951399788991644</v>
       </c>
       <c r="K17">
-        <v>0.9986921381420976</v>
+        <v>0.9951399788991644</v>
       </c>
       <c r="L17">
-        <v>1.029161490494791</v>
+        <v>1.008131676047657</v>
       </c>
       <c r="M17">
-        <v>0.9804547953257081</v>
+        <v>0.9977582549328445</v>
       </c>
       <c r="N17">
-        <v>0.9804547953257081</v>
+        <v>0.9977582549328445</v>
       </c>
       <c r="O17">
-        <v>0.9702936038682545</v>
+        <v>0.9946873410462284</v>
       </c>
       <c r="P17">
-        <v>0.9865339095978379</v>
+        <v>0.9968854962549512</v>
       </c>
       <c r="Q17">
-        <v>0.9865339095978379</v>
+        <v>0.9968854962549512</v>
       </c>
       <c r="R17">
-        <v>0.9895734667339028</v>
+        <v>0.9964491169160045</v>
       </c>
       <c r="S17">
-        <v>0.9895734667339028</v>
+        <v>0.9964491169160045</v>
       </c>
       <c r="T17">
-        <v>1.003851704208614</v>
+        <v>1.001731863895128</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.039832401332465</v>
+        <v>0.9931160977461116</v>
       </c>
       <c r="D18">
-        <v>0.9361302720241798</v>
+        <v>0.981463491894324</v>
       </c>
       <c r="E18">
-        <v>0.9361302720241798</v>
+        <v>0.981463491894324</v>
       </c>
       <c r="F18">
-        <v>1.003550009036452</v>
+        <v>1.011837743297526</v>
       </c>
       <c r="G18">
-        <v>1.014127962436331</v>
+        <v>1.006379533789181</v>
       </c>
       <c r="H18">
-        <v>1.006908303967011</v>
+        <v>1.039166815458816</v>
       </c>
       <c r="I18">
-        <v>0.9708410058550518</v>
+        <v>0.9831799671933976</v>
       </c>
       <c r="J18">
-        <v>1.039832401332465</v>
+        <v>0.9931160977461116</v>
       </c>
       <c r="K18">
-        <v>1.039832401332465</v>
+        <v>0.9931160977461116</v>
       </c>
       <c r="L18">
-        <v>1.003550009036452</v>
+        <v>1.011837743297526</v>
       </c>
       <c r="M18">
-        <v>0.9698401405303159</v>
+        <v>0.9966506175959251</v>
       </c>
       <c r="N18">
-        <v>0.9698401405303159</v>
+        <v>0.9966506175959251</v>
       </c>
       <c r="O18">
-        <v>0.9701737623052278</v>
+        <v>0.9921604007950826</v>
       </c>
       <c r="P18">
-        <v>0.9931708941310323</v>
+        <v>0.995472444312654</v>
       </c>
       <c r="Q18">
-        <v>0.9931708941310323</v>
+        <v>0.995472444312654</v>
       </c>
       <c r="R18">
-        <v>1.00483627093139</v>
+        <v>0.9948833576710184</v>
       </c>
       <c r="S18">
-        <v>1.00483627093139</v>
+        <v>0.9948833576710184</v>
       </c>
       <c r="T18">
-        <v>0.9952316591085819</v>
+        <v>1.002523941563226</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.051015554011811</v>
+        <v>1.000440142718342</v>
       </c>
       <c r="D19">
-        <v>0.9311732736351221</v>
+        <v>0.9994035865902736</v>
       </c>
       <c r="E19">
-        <v>0.9311732736351221</v>
+        <v>0.9994035865902736</v>
       </c>
       <c r="F19">
-        <v>0.9999672198178632</v>
+        <v>0.9999995385447847</v>
       </c>
       <c r="G19">
-        <v>1.014850108136122</v>
+        <v>1.00012799176609</v>
       </c>
       <c r="H19">
-        <v>0.998181337150631</v>
+        <v>0.9999783092083485</v>
       </c>
       <c r="I19">
-        <v>0.9695034339983337</v>
+        <v>0.9997387810836675</v>
       </c>
       <c r="J19">
-        <v>1.051015554011811</v>
+        <v>1.000440142718342</v>
       </c>
       <c r="K19">
-        <v>1.051015554011811</v>
+        <v>1.000440142718342</v>
       </c>
       <c r="L19">
-        <v>0.9999672198178632</v>
+        <v>0.9999995385447847</v>
       </c>
       <c r="M19">
-        <v>0.9655702467264926</v>
+        <v>0.9997015625675292</v>
       </c>
       <c r="N19">
-        <v>0.9655702467264926</v>
+        <v>0.9997015625675292</v>
       </c>
       <c r="O19">
-        <v>0.9668813091504397</v>
+        <v>0.9997139687395752</v>
       </c>
       <c r="P19">
-        <v>0.9940520158215987</v>
+        <v>0.9999477559511337</v>
       </c>
       <c r="Q19">
-        <v>0.9940520158215987</v>
+        <v>0.9999477559511335</v>
       </c>
       <c r="R19">
-        <v>1.008292900369152</v>
+        <v>1.000070852642936</v>
       </c>
       <c r="S19">
-        <v>1.008292900369152</v>
+        <v>1.000070852642936</v>
       </c>
       <c r="T19">
-        <v>0.9941151544583139</v>
+        <v>0.9999480583185844</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9997853870358937</v>
+        <v>1.001119733448167</v>
       </c>
       <c r="D20">
-        <v>1.000245392226936</v>
+        <v>0.9985878410207292</v>
       </c>
       <c r="E20">
-        <v>1.000245392226936</v>
+        <v>0.9985878410207292</v>
       </c>
       <c r="F20">
-        <v>1.000050915806888</v>
+        <v>0.9999580540181668</v>
       </c>
       <c r="G20">
-        <v>0.9999734992881617</v>
+        <v>1.000296732878558</v>
       </c>
       <c r="H20">
-        <v>1.000353759583226</v>
+        <v>0.9998242873535351</v>
       </c>
       <c r="I20">
-        <v>0.9999889302490159</v>
+        <v>0.9994034590852856</v>
       </c>
       <c r="J20">
-        <v>0.9997853870358937</v>
+        <v>1.001119733448167</v>
       </c>
       <c r="K20">
-        <v>0.9997853870358937</v>
+        <v>1.001119733448167</v>
       </c>
       <c r="L20">
-        <v>1.000050915806888</v>
+        <v>0.9999580540181668</v>
       </c>
       <c r="M20">
-        <v>1.000148154016912</v>
+        <v>0.999272947519448</v>
       </c>
       <c r="N20">
-        <v>1.000148154016912</v>
+        <v>0.999272947519448</v>
       </c>
       <c r="O20">
-        <v>1.000095079427614</v>
+        <v>0.9993164513747272</v>
       </c>
       <c r="P20">
-        <v>1.000027231689906</v>
+        <v>0.9998885428290208</v>
       </c>
       <c r="Q20">
-        <v>1.000027231689906</v>
+        <v>0.9998885428290208</v>
       </c>
       <c r="R20">
-        <v>0.9999667705264029</v>
+        <v>1.000196340483807</v>
       </c>
       <c r="S20">
-        <v>0.9999667705264029</v>
+        <v>1.000196340483807</v>
       </c>
       <c r="T20">
-        <v>1.000066314031687</v>
+        <v>0.9998650179674069</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.001008076840504</v>
+        <v>1.001702692535339</v>
       </c>
       <c r="D21">
-        <v>0.998877160997456</v>
+        <v>0.9976856196828473</v>
       </c>
       <c r="E21">
-        <v>0.998877160997456</v>
+        <v>0.9976856196828473</v>
       </c>
       <c r="F21">
-        <v>0.9998638699249703</v>
+        <v>0.9999999811096965</v>
       </c>
       <c r="G21">
-        <v>1.000197454765357</v>
+        <v>1.000496396007587</v>
       </c>
       <c r="H21">
-        <v>0.9993044706136851</v>
+        <v>0.9999133371962975</v>
       </c>
       <c r="I21">
-        <v>0.9996953779571349</v>
+        <v>0.9989886453870236</v>
       </c>
       <c r="J21">
-        <v>1.001008076840504</v>
+        <v>1.001702692535339</v>
       </c>
       <c r="K21">
-        <v>1.001008076840504</v>
+        <v>1.001702692535339</v>
       </c>
       <c r="L21">
-        <v>0.9998638699249703</v>
+        <v>0.9999999811096965</v>
       </c>
       <c r="M21">
-        <v>0.9993705154612131</v>
+        <v>0.9988428003962719</v>
       </c>
       <c r="N21">
-        <v>0.9993705154612131</v>
+        <v>0.9988428003962719</v>
       </c>
       <c r="O21">
-        <v>0.9994788029598537</v>
+        <v>0.9988914153931892</v>
       </c>
       <c r="P21">
-        <v>0.9999163692543099</v>
+        <v>0.9997960977759609</v>
       </c>
       <c r="Q21">
-        <v>0.99991636925431</v>
+        <v>0.9997960977759609</v>
       </c>
       <c r="R21">
-        <v>1.000189296150858</v>
+        <v>1.000272746465805</v>
       </c>
       <c r="S21">
-        <v>1.000189296150858</v>
+        <v>1.000272746465805</v>
       </c>
       <c r="T21">
-        <v>0.9998244018498511</v>
+        <v>0.9997977786531318</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9983271230102929</v>
+        <v>1.003497422176263</v>
       </c>
       <c r="D22">
-        <v>1.000014184114165</v>
+        <v>0.9953120702995987</v>
       </c>
       <c r="E22">
-        <v>1.000014184114165</v>
+        <v>0.9953120702995987</v>
       </c>
       <c r="F22">
-        <v>1.001021369692388</v>
+        <v>0.9999738403656482</v>
       </c>
       <c r="G22">
-        <v>1.000235868042641</v>
+        <v>1.001001121413497</v>
       </c>
       <c r="H22">
-        <v>1.003836650481526</v>
+        <v>0.9997407343215965</v>
       </c>
       <c r="I22">
-        <v>0.9990806161380359</v>
+        <v>0.9979672788625095</v>
       </c>
       <c r="J22">
-        <v>0.9983271230102929</v>
+        <v>1.003497422176263</v>
       </c>
       <c r="K22">
-        <v>0.9983271230102929</v>
+        <v>1.003497422176263</v>
       </c>
       <c r="L22">
-        <v>1.001021369692388</v>
+        <v>0.9999738403656482</v>
       </c>
       <c r="M22">
-        <v>1.000517776903276</v>
+        <v>0.9976429553326234</v>
       </c>
       <c r="N22">
-        <v>1.000517776903276</v>
+        <v>0.9976429553326234</v>
       </c>
       <c r="O22">
-        <v>1.000038723314863</v>
+        <v>0.9977510631759188</v>
       </c>
       <c r="P22">
-        <v>0.9997875589389484</v>
+        <v>0.9995944442805033</v>
       </c>
       <c r="Q22">
-        <v>0.9997875589389486</v>
+        <v>0.9995944442805035</v>
       </c>
       <c r="R22">
-        <v>0.9994224499567846</v>
+        <v>1.000570188754443</v>
       </c>
       <c r="S22">
-        <v>0.9994224499567846</v>
+        <v>1.000570188754443</v>
       </c>
       <c r="T22">
-        <v>1.000419301913175</v>
+        <v>0.9995820779065188</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.00618286021359</v>
+      </c>
+      <c r="D23">
+        <v>0.9915881753438976</v>
+      </c>
+      <c r="E23">
+        <v>0.9915881753438976</v>
+      </c>
+      <c r="F23">
+        <v>0.9999987182507969</v>
+      </c>
+      <c r="G23">
+        <v>1.001801667355784</v>
+      </c>
+      <c r="H23">
+        <v>0.9996445299662958</v>
+      </c>
+      <c r="I23">
+        <v>0.9963393628301803</v>
+      </c>
+      <c r="J23">
+        <v>1.00618286021359</v>
+      </c>
+      <c r="K23">
+        <v>1.00618286021359</v>
+      </c>
+      <c r="L23">
+        <v>0.9999987182507969</v>
+      </c>
+      <c r="M23">
+        <v>0.9957934467973473</v>
+      </c>
+      <c r="N23">
+        <v>0.9957934467973473</v>
+      </c>
+      <c r="O23">
+        <v>0.9959754188082917</v>
+      </c>
+      <c r="P23">
+        <v>0.9992565846027617</v>
+      </c>
+      <c r="Q23">
+        <v>0.9992565846027617</v>
+      </c>
+      <c r="R23">
+        <v>1.000988153505469</v>
+      </c>
+      <c r="S23">
+        <v>1.000988153505469</v>
+      </c>
+      <c r="T23">
+        <v>0.9992592189934243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9877932451931219</v>
+      </c>
+      <c r="D24">
+        <v>0.9842976226294285</v>
+      </c>
+      <c r="E24">
+        <v>0.9842976226294285</v>
+      </c>
+      <c r="F24">
+        <v>1.009648920589846</v>
+      </c>
+      <c r="G24">
+        <v>1.003277000515179</v>
+      </c>
+      <c r="H24">
+        <v>1.0123530879069</v>
+      </c>
+      <c r="I24">
+        <v>0.9958367111768501</v>
+      </c>
+      <c r="J24">
+        <v>0.9877932451931219</v>
+      </c>
+      <c r="K24">
+        <v>0.9877932451931219</v>
+      </c>
+      <c r="L24">
+        <v>1.009648920589846</v>
+      </c>
+      <c r="M24">
+        <v>0.9969732716096376</v>
+      </c>
+      <c r="N24">
+        <v>0.9969732716096376</v>
+      </c>
+      <c r="O24">
+        <v>0.9965944181320417</v>
+      </c>
+      <c r="P24">
+        <v>0.9939132628041323</v>
+      </c>
+      <c r="Q24">
+        <v>0.9939132628041323</v>
+      </c>
+      <c r="R24">
+        <v>0.9923832584013796</v>
+      </c>
+      <c r="S24">
+        <v>0.9923832584013796</v>
+      </c>
+      <c r="T24">
+        <v>0.9988677646685543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="D25">
+        <v>1.008235246009658</v>
+      </c>
+      <c r="E25">
+        <v>1.008235246009658</v>
+      </c>
+      <c r="F25">
+        <v>0.9937204182804563</v>
+      </c>
+      <c r="G25">
+        <v>0.9991714166296328</v>
+      </c>
+      <c r="H25">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="I25">
+        <v>0.9972891075569357</v>
+      </c>
+      <c r="J25">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="K25">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="L25">
+        <v>0.9937204182804563</v>
+      </c>
+      <c r="M25">
+        <v>1.000977832145057</v>
+      </c>
+      <c r="N25">
+        <v>1.000977832145057</v>
+      </c>
+      <c r="O25">
+        <v>0.9997482572823498</v>
+      </c>
+      <c r="P25">
+        <v>1.004791005004594</v>
+      </c>
+      <c r="Q25">
+        <v>1.004791005004594</v>
+      </c>
+      <c r="R25">
+        <v>1.006697591434362</v>
+      </c>
+      <c r="S25">
+        <v>1.006697591434362</v>
+      </c>
+      <c r="T25">
+        <v>1.002100508738175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.026238597490308</v>
+      </c>
+      <c r="D26">
+        <v>0.3714423812481314</v>
+      </c>
+      <c r="E26">
+        <v>0.3714423812481314</v>
+      </c>
+      <c r="F26">
+        <v>1.231504511976268</v>
+      </c>
+      <c r="G26">
+        <v>1.171660200104622</v>
+      </c>
+      <c r="H26">
+        <v>1.666904030482522</v>
+      </c>
+      <c r="I26">
+        <v>0.6015906712504765</v>
+      </c>
+      <c r="J26">
+        <v>1.026238597490308</v>
+      </c>
+      <c r="K26">
+        <v>1.026238597490308</v>
+      </c>
+      <c r="L26">
+        <v>1.231504511976268</v>
+      </c>
+      <c r="M26">
+        <v>0.8014734466121994</v>
+      </c>
+      <c r="N26">
+        <v>0.8014734466121994</v>
+      </c>
+      <c r="O26">
+        <v>0.7348458548249585</v>
+      </c>
+      <c r="P26">
+        <v>0.8763951635715689</v>
+      </c>
+      <c r="Q26">
+        <v>0.8763951635715689</v>
+      </c>
+      <c r="R26">
+        <v>0.9138560220512537</v>
+      </c>
+      <c r="S26">
+        <v>0.9138560220512537</v>
+      </c>
+      <c r="T26">
+        <v>1.011556732092054</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.112333449944351</v>
+      </c>
+      <c r="D27">
+        <v>0.7547194126561589</v>
+      </c>
+      <c r="E27">
+        <v>0.7547194126561589</v>
+      </c>
+      <c r="F27">
+        <v>1.031417962512543</v>
+      </c>
+      <c r="G27">
+        <v>1.055008481145014</v>
+      </c>
+      <c r="H27">
+        <v>1.054495661141747</v>
+      </c>
+      <c r="I27">
+        <v>0.8896802287133405</v>
+      </c>
+      <c r="J27">
+        <v>1.112333449944351</v>
+      </c>
+      <c r="K27">
+        <v>1.112333449944351</v>
+      </c>
+      <c r="L27">
+        <v>1.031417962512543</v>
+      </c>
+      <c r="M27">
+        <v>0.8930686875843509</v>
+      </c>
+      <c r="N27">
+        <v>0.8930686875843509</v>
+      </c>
+      <c r="O27">
+        <v>0.8919392012940142</v>
+      </c>
+      <c r="P27">
+        <v>0.9661569417043511</v>
+      </c>
+      <c r="Q27">
+        <v>0.9661569417043511</v>
+      </c>
+      <c r="R27">
+        <v>1.002701068764351</v>
+      </c>
+      <c r="S27">
+        <v>1.002701068764351</v>
+      </c>
+      <c r="T27">
+        <v>0.9829425326855256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9779239065206921</v>
+      </c>
+      <c r="D28">
+        <v>0.9297101371306705</v>
+      </c>
+      <c r="E28">
+        <v>0.9297101371306705</v>
+      </c>
+      <c r="F28">
+        <v>1.042015858196221</v>
+      </c>
+      <c r="G28">
+        <v>1.023330153758085</v>
+      </c>
+      <c r="H28">
+        <v>1.136600985588456</v>
+      </c>
+      <c r="I28">
+        <v>0.9395689379235928</v>
+      </c>
+      <c r="J28">
+        <v>0.9779239065206921</v>
+      </c>
+      <c r="K28">
+        <v>0.9779239065206921</v>
+      </c>
+      <c r="L28">
+        <v>1.042015858196221</v>
+      </c>
+      <c r="M28">
+        <v>0.9858629976634459</v>
+      </c>
+      <c r="N28">
+        <v>0.9858629976634459</v>
+      </c>
+      <c r="O28">
+        <v>0.9704316444168283</v>
+      </c>
+      <c r="P28">
+        <v>0.9832166339491946</v>
+      </c>
+      <c r="Q28">
+        <v>0.9832166339491946</v>
+      </c>
+      <c r="R28">
+        <v>0.9818934520920689</v>
+      </c>
+      <c r="S28">
+        <v>0.9818934520920689</v>
+      </c>
+      <c r="T28">
+        <v>1.008191663186286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9986921381420976</v>
+      </c>
+      <c r="D29">
+        <v>0.9317481001566256</v>
+      </c>
+      <c r="E29">
+        <v>0.9317481001566256</v>
+      </c>
+      <c r="F29">
+        <v>1.029161490494791</v>
+      </c>
+      <c r="G29">
+        <v>1.02027829380569</v>
+      </c>
+      <c r="H29">
+        <v>1.093258981699133</v>
+      </c>
+      <c r="I29">
+        <v>0.9499712209533472</v>
+      </c>
+      <c r="J29">
+        <v>0.9986921381420976</v>
+      </c>
+      <c r="K29">
+        <v>0.9986921381420976</v>
+      </c>
+      <c r="L29">
+        <v>1.029161490494791</v>
+      </c>
+      <c r="M29">
+        <v>0.9804547953257081</v>
+      </c>
+      <c r="N29">
+        <v>0.9804547953257081</v>
+      </c>
+      <c r="O29">
+        <v>0.9702936038682545</v>
+      </c>
+      <c r="P29">
+        <v>0.9865339095978379</v>
+      </c>
+      <c r="Q29">
+        <v>0.9865339095978379</v>
+      </c>
+      <c r="R29">
+        <v>0.9895734667339028</v>
+      </c>
+      <c r="S29">
+        <v>0.9895734667339028</v>
+      </c>
+      <c r="T29">
+        <v>1.003851704208614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.039832401332465</v>
+      </c>
+      <c r="D30">
+        <v>0.9361302720241798</v>
+      </c>
+      <c r="E30">
+        <v>0.9361302720241798</v>
+      </c>
+      <c r="F30">
+        <v>1.003550009036452</v>
+      </c>
+      <c r="G30">
+        <v>1.014127962436331</v>
+      </c>
+      <c r="H30">
+        <v>1.006908303967011</v>
+      </c>
+      <c r="I30">
+        <v>0.9708410058550518</v>
+      </c>
+      <c r="J30">
+        <v>1.039832401332465</v>
+      </c>
+      <c r="K30">
+        <v>1.039832401332465</v>
+      </c>
+      <c r="L30">
+        <v>1.003550009036452</v>
+      </c>
+      <c r="M30">
+        <v>0.9698401405303159</v>
+      </c>
+      <c r="N30">
+        <v>0.9698401405303159</v>
+      </c>
+      <c r="O30">
+        <v>0.9701737623052278</v>
+      </c>
+      <c r="P30">
+        <v>0.9931708941310323</v>
+      </c>
+      <c r="Q30">
+        <v>0.9931708941310323</v>
+      </c>
+      <c r="R30">
+        <v>1.00483627093139</v>
+      </c>
+      <c r="S30">
+        <v>1.00483627093139</v>
+      </c>
+      <c r="T30">
+        <v>0.9952316591085819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.051015554011811</v>
+      </c>
+      <c r="D31">
+        <v>0.9311732736351221</v>
+      </c>
+      <c r="E31">
+        <v>0.9311732736351221</v>
+      </c>
+      <c r="F31">
+        <v>0.9999672198178632</v>
+      </c>
+      <c r="G31">
+        <v>1.014850108136122</v>
+      </c>
+      <c r="H31">
+        <v>0.998181337150631</v>
+      </c>
+      <c r="I31">
+        <v>0.9695034339983337</v>
+      </c>
+      <c r="J31">
+        <v>1.051015554011811</v>
+      </c>
+      <c r="K31">
+        <v>1.051015554011811</v>
+      </c>
+      <c r="L31">
+        <v>0.9999672198178632</v>
+      </c>
+      <c r="M31">
+        <v>0.9655702467264926</v>
+      </c>
+      <c r="N31">
+        <v>0.9655702467264926</v>
+      </c>
+      <c r="O31">
+        <v>0.9668813091504397</v>
+      </c>
+      <c r="P31">
+        <v>0.9940520158215987</v>
+      </c>
+      <c r="Q31">
+        <v>0.9940520158215987</v>
+      </c>
+      <c r="R31">
+        <v>1.008292900369152</v>
+      </c>
+      <c r="S31">
+        <v>1.008292900369152</v>
+      </c>
+      <c r="T31">
+        <v>0.9941151544583139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9630482964383559</v>
+      </c>
+      <c r="D32">
+        <v>0.921814678219178</v>
+      </c>
+      <c r="E32">
+        <v>0.921814678219178</v>
+      </c>
+      <c r="F32">
+        <v>1.053987541780822</v>
+      </c>
+      <c r="G32">
+        <v>1.027474637260274</v>
+      </c>
+      <c r="H32">
+        <v>1.17688825260274</v>
+      </c>
+      <c r="I32">
+        <v>0.9271855960273977</v>
+      </c>
+      <c r="J32">
+        <v>0.9630482964383559</v>
+      </c>
+      <c r="K32">
+        <v>0.9630482964383559</v>
+      </c>
+      <c r="L32">
+        <v>1.053987541780822</v>
+      </c>
+      <c r="M32">
+        <v>0.9879011100000001</v>
+      </c>
+      <c r="N32">
+        <v>0.9879011100000001</v>
+      </c>
+      <c r="O32">
+        <v>0.9676626053424661</v>
+      </c>
+      <c r="P32">
+        <v>0.9796168388127854</v>
+      </c>
+      <c r="Q32">
+        <v>0.9796168388127854</v>
+      </c>
+      <c r="R32">
+        <v>0.975474703219178</v>
+      </c>
+      <c r="S32">
+        <v>0.975474703219178</v>
+      </c>
+      <c r="T32">
+        <v>1.011733167054795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="D33">
+        <v>0.9600666142105262</v>
+      </c>
+      <c r="E33">
+        <v>0.9600666142105262</v>
+      </c>
+      <c r="F33">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="G33">
+        <v>1.017975865789474</v>
+      </c>
+      <c r="H33">
+        <v>1.149672160526316</v>
+      </c>
+      <c r="I33">
+        <v>0.9477376073684212</v>
+      </c>
+      <c r="J33">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="K33">
+        <v>0.9567933405263159</v>
+      </c>
+      <c r="L33">
+        <v>1.043153866842105</v>
+      </c>
+      <c r="M33">
+        <v>1.001610240526316</v>
+      </c>
+      <c r="N33">
+        <v>1.001610240526316</v>
+      </c>
+      <c r="O33">
+        <v>0.9836526961403509</v>
+      </c>
+      <c r="P33">
+        <v>0.9866712738596491</v>
+      </c>
+      <c r="Q33">
+        <v>0.9866712738596491</v>
+      </c>
+      <c r="R33">
+        <v>0.9792017905263158</v>
+      </c>
+      <c r="S33">
+        <v>0.9792017905263158</v>
+      </c>
+      <c r="T33">
+        <v>1.012566575877193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9505445952631577</v>
+      </c>
+      <c r="D34">
+        <v>1.463372223157895</v>
+      </c>
+      <c r="E34">
+        <v>1.463372223157895</v>
+      </c>
+      <c r="F34">
+        <v>0.8523795331578947</v>
+      </c>
+      <c r="G34">
+        <v>0.8809990821052632</v>
+      </c>
+      <c r="H34">
+        <v>0.6172963621052632</v>
+      </c>
+      <c r="I34">
+        <v>1.262084492631579</v>
+      </c>
+      <c r="J34">
+        <v>0.9505445952631577</v>
+      </c>
+      <c r="K34">
+        <v>0.9505445952631577</v>
+      </c>
+      <c r="L34">
+        <v>0.8523795331578947</v>
+      </c>
+      <c r="M34">
+        <v>1.157875878157895</v>
+      </c>
+      <c r="N34">
+        <v>1.157875878157895</v>
+      </c>
+      <c r="O34">
+        <v>1.192612082982456</v>
+      </c>
+      <c r="P34">
+        <v>1.088765450526316</v>
+      </c>
+      <c r="Q34">
+        <v>1.088765450526316</v>
+      </c>
+      <c r="R34">
+        <v>1.054210236710526</v>
+      </c>
+      <c r="S34">
+        <v>1.054210236710526</v>
+      </c>
+      <c r="T34">
+        <v>1.004446048070176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.203609028101556</v>
+      </c>
+      <c r="D35">
+        <v>0.730174542088159</v>
+      </c>
+      <c r="E35">
+        <v>0.730174542088159</v>
+      </c>
+      <c r="F35">
+        <v>0.9975540872998958</v>
+      </c>
+      <c r="G35">
+        <v>1.057628407037676</v>
+      </c>
+      <c r="H35">
+        <v>0.9839799347163564</v>
+      </c>
+      <c r="I35">
+        <v>0.8827070272708223</v>
+      </c>
+      <c r="J35">
+        <v>1.203609028101556</v>
+      </c>
+      <c r="K35">
+        <v>1.203609028101556</v>
+      </c>
+      <c r="L35">
+        <v>0.9975540872998958</v>
+      </c>
+      <c r="M35">
+        <v>0.8638643146940275</v>
+      </c>
+      <c r="N35">
+        <v>0.8638643146940275</v>
+      </c>
+      <c r="O35">
+        <v>0.8701452188862925</v>
+      </c>
+      <c r="P35">
+        <v>0.9771125524965371</v>
+      </c>
+      <c r="Q35">
+        <v>0.9771125524965371</v>
+      </c>
+      <c r="R35">
+        <v>1.033736671397792</v>
+      </c>
+      <c r="S35">
+        <v>1.033736671397792</v>
+      </c>
+      <c r="T35">
+        <v>0.9759421710857442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9997853870358937</v>
+      </c>
+      <c r="D36">
+        <v>1.000245392226936</v>
+      </c>
+      <c r="E36">
+        <v>1.000245392226936</v>
+      </c>
+      <c r="F36">
+        <v>1.000050915806888</v>
+      </c>
+      <c r="G36">
+        <v>0.9999734992881617</v>
+      </c>
+      <c r="H36">
+        <v>1.000353759583226</v>
+      </c>
+      <c r="I36">
+        <v>0.9999889302490159</v>
+      </c>
+      <c r="J36">
+        <v>0.9997853870358937</v>
+      </c>
+      <c r="K36">
+        <v>0.9997853870358937</v>
+      </c>
+      <c r="L36">
+        <v>1.000050915806888</v>
+      </c>
+      <c r="M36">
+        <v>1.000148154016912</v>
+      </c>
+      <c r="N36">
+        <v>1.000148154016912</v>
+      </c>
+      <c r="O36">
+        <v>1.000095079427614</v>
+      </c>
+      <c r="P36">
+        <v>1.000027231689906</v>
+      </c>
+      <c r="Q36">
+        <v>1.000027231689906</v>
+      </c>
+      <c r="R36">
+        <v>0.9999667705264029</v>
+      </c>
+      <c r="S36">
+        <v>0.9999667705264029</v>
+      </c>
+      <c r="T36">
+        <v>1.000066314031687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.001008076840504</v>
+      </c>
+      <c r="D37">
+        <v>0.998877160997456</v>
+      </c>
+      <c r="E37">
+        <v>0.998877160997456</v>
+      </c>
+      <c r="F37">
+        <v>0.9998638699249703</v>
+      </c>
+      <c r="G37">
+        <v>1.000197454765357</v>
+      </c>
+      <c r="H37">
+        <v>0.9993044706136851</v>
+      </c>
+      <c r="I37">
+        <v>0.9996953779571349</v>
+      </c>
+      <c r="J37">
+        <v>1.001008076840504</v>
+      </c>
+      <c r="K37">
+        <v>1.001008076840504</v>
+      </c>
+      <c r="L37">
+        <v>0.9998638699249703</v>
+      </c>
+      <c r="M37">
+        <v>0.9993705154612131</v>
+      </c>
+      <c r="N37">
+        <v>0.9993705154612131</v>
+      </c>
+      <c r="O37">
+        <v>0.9994788029598537</v>
+      </c>
+      <c r="P37">
+        <v>0.9999163692543099</v>
+      </c>
+      <c r="Q37">
+        <v>0.99991636925431</v>
+      </c>
+      <c r="R37">
+        <v>1.000189296150858</v>
+      </c>
+      <c r="S37">
+        <v>1.000189296150858</v>
+      </c>
+      <c r="T37">
+        <v>0.9998244018498511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9983271230102929</v>
+      </c>
+      <c r="D38">
+        <v>1.000014184114165</v>
+      </c>
+      <c r="E38">
+        <v>1.000014184114165</v>
+      </c>
+      <c r="F38">
+        <v>1.001021369692388</v>
+      </c>
+      <c r="G38">
+        <v>1.000235868042641</v>
+      </c>
+      <c r="H38">
+        <v>1.003836650481526</v>
+      </c>
+      <c r="I38">
+        <v>0.9990806161380359</v>
+      </c>
+      <c r="J38">
+        <v>0.9983271230102929</v>
+      </c>
+      <c r="K38">
+        <v>0.9983271230102929</v>
+      </c>
+      <c r="L38">
+        <v>1.001021369692388</v>
+      </c>
+      <c r="M38">
+        <v>1.000517776903276</v>
+      </c>
+      <c r="N38">
+        <v>1.000517776903276</v>
+      </c>
+      <c r="O38">
+        <v>1.000038723314863</v>
+      </c>
+      <c r="P38">
+        <v>0.9997875589389484</v>
+      </c>
+      <c r="Q38">
+        <v>0.9997875589389486</v>
+      </c>
+      <c r="R38">
+        <v>0.9994224499567846</v>
+      </c>
+      <c r="S38">
+        <v>0.9994224499567846</v>
+      </c>
+      <c r="T38">
+        <v>1.000419301913175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9926963390128842</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.002882669257294</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.002882669257294</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.003321543673509</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000223808428107</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.013245248055121</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9979285438023731</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9926963390128842</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9926963390128842</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.003321543673509</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.003102106465402</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.003102106465402</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.001377585577725</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9996335173145624</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9996335173145625</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.997899222739143</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.997899222739143</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.001716358704881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.940869781025288</v>
+      </c>
+      <c r="D40">
+        <v>1.19656238909308</v>
+      </c>
+      <c r="E40">
+        <v>1.19656238909308</v>
+      </c>
+      <c r="F40">
+        <v>0.9577698403476411</v>
+      </c>
+      <c r="G40">
+        <v>0.952842707031505</v>
+      </c>
+      <c r="H40">
+        <v>0.8969265250894211</v>
+      </c>
+      <c r="I40">
+        <v>1.100438683636427</v>
+      </c>
+      <c r="J40">
+        <v>0.940869781025288</v>
+      </c>
+      <c r="K40">
+        <v>0.940869781025288</v>
+      </c>
+      <c r="L40">
+        <v>0.9577698403476411</v>
+      </c>
+      <c r="M40">
+        <v>1.077166114720361</v>
+      </c>
+      <c r="N40">
+        <v>1.077166114720361</v>
+      </c>
+      <c r="O40">
+        <v>1.084923637692383</v>
+      </c>
+      <c r="P40">
+        <v>1.03173400348867</v>
+      </c>
+      <c r="Q40">
+        <v>1.03173400348867</v>
+      </c>
+      <c r="R40">
+        <v>1.009017947872824</v>
+      </c>
+      <c r="S40">
+        <v>1.009017947872824</v>
+      </c>
+      <c r="T40">
+        <v>1.007568321037227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9897932467091469</v>
+      </c>
+      <c r="D41">
+        <v>1.089831428718139</v>
+      </c>
+      <c r="E41">
+        <v>1.089831428718139</v>
+      </c>
+      <c r="F41">
+        <v>0.9710767928530138</v>
+      </c>
+      <c r="G41">
+        <v>0.9765334832189169</v>
+      </c>
+      <c r="H41">
+        <v>0.9214809672467122</v>
+      </c>
+      <c r="I41">
+        <v>1.052659211710734</v>
+      </c>
+      <c r="J41">
+        <v>0.9897932467091469</v>
+      </c>
+      <c r="K41">
+        <v>0.9897932467091469</v>
+      </c>
+      <c r="L41">
+        <v>0.9710767928530138</v>
+      </c>
+      <c r="M41">
+        <v>1.030454110785577</v>
+      </c>
+      <c r="N41">
+        <v>1.030454110785577</v>
+      </c>
+      <c r="O41">
+        <v>1.037855811093962</v>
+      </c>
+      <c r="P41">
+        <v>1.016900489426767</v>
+      </c>
+      <c r="Q41">
+        <v>1.016900489426767</v>
+      </c>
+      <c r="R41">
+        <v>1.010123678747362</v>
+      </c>
+      <c r="S41">
+        <v>1.010123678747362</v>
+      </c>
+      <c r="T41">
+        <v>1.000229188409444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9449733589173761</v>
+      </c>
+      <c r="D42">
+        <v>1.106788222704717</v>
+      </c>
+      <c r="E42">
+        <v>1.106788222704717</v>
+      </c>
+      <c r="F42">
+        <v>0.9896343585785263</v>
+      </c>
+      <c r="G42">
+        <v>0.9766136562441511</v>
+      </c>
+      <c r="H42">
+        <v>0.9822479292791234</v>
+      </c>
+      <c r="I42">
+        <v>1.047079736100069</v>
+      </c>
+      <c r="J42">
+        <v>0.9449733589173761</v>
+      </c>
+      <c r="K42">
+        <v>0.9449733589173761</v>
+      </c>
+      <c r="L42">
+        <v>0.9896343585785263</v>
+      </c>
+      <c r="M42">
+        <v>1.048211290641621</v>
+      </c>
+      <c r="N42">
+        <v>1.048211290641621</v>
+      </c>
+      <c r="O42">
+        <v>1.047834105794437</v>
+      </c>
+      <c r="P42">
+        <v>1.01379864673354</v>
+      </c>
+      <c r="Q42">
+        <v>1.01379864673354</v>
+      </c>
+      <c r="R42">
+        <v>0.9965923247794988</v>
+      </c>
+      <c r="S42">
+        <v>0.9965923247794988</v>
+      </c>
+      <c r="T42">
+        <v>1.007889543637327</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9985454435190541</v>
+        <v>1.001119733448167</v>
       </c>
       <c r="D3">
-        <v>0.9966869447305806</v>
+        <v>0.9985878410207292</v>
       </c>
       <c r="E3">
-        <v>1.00224145508353</v>
+        <v>0.9985878410207292</v>
       </c>
       <c r="F3">
-        <v>0.9985454435190541</v>
+        <v>0.9999580540181668</v>
       </c>
       <c r="G3">
-        <v>1.007416023718004</v>
+        <v>1.000296732878558</v>
       </c>
       <c r="H3">
-        <v>0.9969076251060773</v>
+        <v>0.9998242873535351</v>
       </c>
       <c r="I3">
-        <v>1.001163897288122</v>
+        <v>0.9994034590852856</v>
       </c>
       <c r="J3">
-        <v>0.9966869447305806</v>
+        <v>1.001119733448167</v>
       </c>
       <c r="K3">
-        <v>0.9985454435190541</v>
+        <v>1.001119733448167</v>
       </c>
       <c r="L3">
-        <v>1.00224145508353</v>
+        <v>0.9999580540181668</v>
       </c>
       <c r="M3">
-        <v>0.9994641999070554</v>
+        <v>0.999272947519448</v>
       </c>
       <c r="N3">
-        <v>0.9994641999070554</v>
+        <v>0.999272947519448</v>
       </c>
       <c r="O3">
-        <v>0.9986120083067295</v>
+        <v>0.9993164513747272</v>
       </c>
       <c r="P3">
-        <v>0.9991579477777216</v>
+        <v>0.9998885428290208</v>
       </c>
       <c r="Q3">
-        <v>0.9991579477777216</v>
+        <v>0.9998885428290208</v>
       </c>
       <c r="R3">
-        <v>0.9990048217130547</v>
+        <v>1.000196340483807</v>
       </c>
       <c r="S3">
-        <v>0.9990048217130547</v>
+        <v>1.000196340483807</v>
       </c>
       <c r="T3">
-        <v>1.000493564907561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.9998650179674069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9972743134717317</v>
+        <v>0.940869781025288</v>
       </c>
       <c r="D4">
-        <v>0.9934429749911399</v>
+        <v>1.19656238909308</v>
       </c>
       <c r="E4">
-        <v>1.004318576882614</v>
+        <v>1.19656238909308</v>
       </c>
       <c r="F4">
-        <v>0.9972743134717317</v>
+        <v>0.9577698403476411</v>
       </c>
       <c r="G4">
-        <v>1.014153443099097</v>
+        <v>0.952842707031505</v>
       </c>
       <c r="H4">
-        <v>0.9940340670819293</v>
+        <v>0.8969265250894211</v>
       </c>
       <c r="I4">
-        <v>1.002264853654778</v>
+        <v>1.100438683636427</v>
       </c>
       <c r="J4">
-        <v>0.9934429749911399</v>
+        <v>0.940869781025288</v>
       </c>
       <c r="K4">
-        <v>0.9972743134717317</v>
+        <v>0.940869781025288</v>
       </c>
       <c r="L4">
-        <v>1.004318576882614</v>
+        <v>0.9577698403476411</v>
       </c>
       <c r="M4">
-        <v>0.9988807759368772</v>
+        <v>1.077166114720361</v>
       </c>
       <c r="N4">
-        <v>0.9988807759368772</v>
+        <v>1.077166114720361</v>
       </c>
       <c r="O4">
-        <v>0.9972652063185613</v>
+        <v>1.084923637692383</v>
       </c>
       <c r="P4">
-        <v>0.9983452884484953</v>
+        <v>1.03173400348867</v>
       </c>
       <c r="Q4">
-        <v>0.9983452884484952</v>
+        <v>1.03173400348867</v>
       </c>
       <c r="R4">
-        <v>0.9980775447043043</v>
+        <v>1.009017947872824</v>
       </c>
       <c r="S4">
-        <v>0.9980775447043043</v>
+        <v>1.009017947872824</v>
       </c>
       <c r="T4">
-        <v>1.000914704863548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>1.007568321037227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9951399788991644</v>
+        <v>1.044689889834293</v>
       </c>
       <c r="D5">
-        <v>0.9873848338180319</v>
+        <v>0.933318173451009</v>
       </c>
       <c r="E5">
-        <v>1.008131676047657</v>
+        <v>0.933318173451009</v>
       </c>
       <c r="F5">
-        <v>0.9951399788991644</v>
+        <v>1.002281219164263</v>
       </c>
       <c r="G5">
-        <v>1.026845182882938</v>
+        <v>1.014645260533142</v>
       </c>
       <c r="H5">
-        <v>0.988545513272996</v>
+        <v>1.004140352694527</v>
       </c>
       <c r="I5">
-        <v>1.004343998449982</v>
+        <v>0.9697317517651298</v>
       </c>
       <c r="J5">
-        <v>0.9873848338180319</v>
+        <v>1.044689889834293</v>
       </c>
       <c r="K5">
-        <v>0.9951399788991644</v>
+        <v>1.044689889834293</v>
       </c>
       <c r="L5">
-        <v>1.008131676047657</v>
+        <v>1.002281219164263</v>
       </c>
       <c r="M5">
-        <v>0.9977582549328445</v>
+        <v>0.967799696307636</v>
       </c>
       <c r="N5">
-        <v>0.9977582549328445</v>
+        <v>0.967799696307636</v>
       </c>
       <c r="O5">
-        <v>0.9946873410462284</v>
+        <v>0.9684437147934672</v>
       </c>
       <c r="P5">
-        <v>0.9968854962549512</v>
+        <v>0.9934297608165216</v>
       </c>
       <c r="Q5">
-        <v>0.9968854962549512</v>
+        <v>0.9934297608165216</v>
       </c>
       <c r="R5">
-        <v>0.9964491169160045</v>
+        <v>1.006244793070964</v>
       </c>
       <c r="S5">
-        <v>0.9964491169160045</v>
+        <v>1.006244793070964</v>
       </c>
       <c r="T5">
-        <v>1.001731863895128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.9948011079070606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9931160977461116</v>
+        <v>1.203609028101556</v>
       </c>
       <c r="D6">
-        <v>0.981463491894324</v>
+        <v>0.730174542088159</v>
       </c>
       <c r="E6">
-        <v>1.011837743297526</v>
+        <v>0.730174542088159</v>
       </c>
       <c r="F6">
-        <v>0.9931160977461116</v>
+        <v>0.9975540872998958</v>
       </c>
       <c r="G6">
-        <v>1.039166815458816</v>
+        <v>1.057628407037676</v>
       </c>
       <c r="H6">
-        <v>0.9831799671933976</v>
+        <v>0.9839799347163564</v>
       </c>
       <c r="I6">
-        <v>1.006379533789181</v>
+        <v>0.8827070272708223</v>
       </c>
       <c r="J6">
-        <v>0.981463491894324</v>
+        <v>1.203609028101556</v>
       </c>
       <c r="K6">
-        <v>0.9931160977461116</v>
+        <v>1.203609028101556</v>
       </c>
       <c r="L6">
-        <v>1.011837743297526</v>
+        <v>0.9975540872998958</v>
       </c>
       <c r="M6">
-        <v>0.9966506175959251</v>
+        <v>0.8638643146940275</v>
       </c>
       <c r="N6">
-        <v>0.9966506175959251</v>
+        <v>0.8638643146940275</v>
       </c>
       <c r="O6">
-        <v>0.9921604007950826</v>
+        <v>0.8701452188862925</v>
       </c>
       <c r="P6">
-        <v>0.995472444312654</v>
+        <v>0.9771125524965371</v>
       </c>
       <c r="Q6">
-        <v>0.995472444312654</v>
+        <v>0.9771125524965371</v>
       </c>
       <c r="R6">
-        <v>0.9948833576710184</v>
+        <v>1.033736671397792</v>
       </c>
       <c r="S6">
-        <v>0.9948833576710184</v>
+        <v>1.033736671397792</v>
       </c>
       <c r="T6">
-        <v>1.002523941563226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9759421710857442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000440142718342</v>
+        <v>0.9982634527254259</v>
       </c>
       <c r="D7">
-        <v>0.9994035865902737</v>
+        <v>0.9984134713364649</v>
       </c>
       <c r="E7">
-        <v>0.9999995385447847</v>
+        <v>0.9984134713364649</v>
       </c>
       <c r="F7">
-        <v>1.000440142718342</v>
+        <v>1.0017089115085</v>
       </c>
       <c r="G7">
-        <v>0.999978309208348</v>
+        <v>1.000704401219166</v>
       </c>
       <c r="H7">
-        <v>0.9997387810836682</v>
+        <v>1.005903916452593</v>
       </c>
       <c r="I7">
-        <v>1.00012799176609</v>
+        <v>0.997955379753225</v>
       </c>
       <c r="J7">
-        <v>0.9994035865902737</v>
+        <v>0.9982634527254259</v>
       </c>
       <c r="K7">
-        <v>1.000440142718342</v>
+        <v>0.9982634527254259</v>
       </c>
       <c r="L7">
-        <v>0.9999995385447847</v>
+        <v>1.0017089115085</v>
       </c>
       <c r="M7">
-        <v>0.9997015625675292</v>
+        <v>1.000061191422482</v>
       </c>
       <c r="N7">
-        <v>0.9997015625675292</v>
+        <v>1.000061191422482</v>
       </c>
       <c r="O7">
-        <v>0.9997139687395755</v>
+        <v>0.9993592541993966</v>
       </c>
       <c r="P7">
-        <v>0.9999477559511337</v>
+        <v>0.9994619451901302</v>
       </c>
       <c r="Q7">
-        <v>0.9999477559511337</v>
+        <v>0.9994619451901302</v>
       </c>
       <c r="R7">
-        <v>1.000070852642936</v>
+        <v>0.9991623220739541</v>
       </c>
       <c r="S7">
-        <v>1.000070852642936</v>
+        <v>0.9991623220739541</v>
       </c>
       <c r="T7">
-        <v>0.9999480583185845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>1.000491588832563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001119733448167</v>
+        <v>1.001008076840504</v>
       </c>
       <c r="D8">
-        <v>0.9985878410207292</v>
+        <v>0.998877160997456</v>
       </c>
       <c r="E8">
-        <v>0.9999580540181675</v>
+        <v>0.998877160997456</v>
       </c>
       <c r="F8">
-        <v>1.001119733448167</v>
+        <v>0.9998638699249703</v>
       </c>
       <c r="G8">
-        <v>0.9998242873535343</v>
+        <v>1.000197454765357</v>
       </c>
       <c r="H8">
-        <v>0.9994034590852853</v>
+        <v>0.9993044706136851</v>
       </c>
       <c r="I8">
-        <v>1.000296732878558</v>
+        <v>0.9996953779571349</v>
       </c>
       <c r="J8">
-        <v>0.9985878410207292</v>
+        <v>1.001008076840504</v>
       </c>
       <c r="K8">
-        <v>1.001119733448167</v>
+        <v>1.001008076840504</v>
       </c>
       <c r="L8">
-        <v>0.9999580540181675</v>
+        <v>0.9998638699249703</v>
       </c>
       <c r="M8">
-        <v>0.9992729475194484</v>
+        <v>0.9993705154612131</v>
       </c>
       <c r="N8">
-        <v>0.9992729475194484</v>
+        <v>0.9993705154612131</v>
       </c>
       <c r="O8">
-        <v>0.9993164513747274</v>
+        <v>0.9994788029598537</v>
       </c>
       <c r="P8">
-        <v>0.9998885428290212</v>
+        <v>0.9999163692543099</v>
       </c>
       <c r="Q8">
-        <v>0.9998885428290212</v>
+        <v>0.99991636925431</v>
       </c>
       <c r="R8">
-        <v>1.000196340483808</v>
+        <v>1.000189296150858</v>
       </c>
       <c r="S8">
-        <v>1.000196340483808</v>
+        <v>1.000189296150858</v>
       </c>
       <c r="T8">
-        <v>0.9998650179674069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9998244018498511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001702692535339</v>
+        <v>0.9972743134717317</v>
       </c>
       <c r="D9">
-        <v>0.9976856196828471</v>
+        <v>0.9934429749911399</v>
       </c>
       <c r="E9">
-        <v>0.9999999811096965</v>
+        <v>0.9934429749911399</v>
       </c>
       <c r="F9">
-        <v>1.001702692535339</v>
+        <v>1.004318576882614</v>
       </c>
       <c r="G9">
-        <v>0.9999133371962975</v>
+        <v>1.002264853654778</v>
       </c>
       <c r="H9">
-        <v>0.9989886453870236</v>
+        <v>1.014153443099097</v>
       </c>
       <c r="I9">
-        <v>1.000496396007587</v>
+        <v>0.9940340670819293</v>
       </c>
       <c r="J9">
-        <v>0.9976856196828471</v>
+        <v>0.9972743134717317</v>
       </c>
       <c r="K9">
-        <v>1.001702692535339</v>
+        <v>0.9972743134717317</v>
       </c>
       <c r="L9">
-        <v>0.9999999811096965</v>
+        <v>1.004318576882614</v>
       </c>
       <c r="M9">
-        <v>0.9988428003962717</v>
+        <v>0.9988807759368772</v>
       </c>
       <c r="N9">
-        <v>0.9988428003962717</v>
+        <v>0.9988807759368772</v>
       </c>
       <c r="O9">
-        <v>0.998891415393189</v>
+        <v>0.9972652063185613</v>
       </c>
       <c r="P9">
-        <v>0.9997960977759609</v>
+        <v>0.9983452884484953</v>
       </c>
       <c r="Q9">
-        <v>0.9997960977759609</v>
+        <v>0.9983452884484952</v>
       </c>
       <c r="R9">
-        <v>1.000272746465805</v>
+        <v>0.9980775447043043</v>
       </c>
       <c r="S9">
-        <v>1.000272746465805</v>
+        <v>0.9980775447043043</v>
       </c>
       <c r="T9">
-        <v>0.9997977786531318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>1.000914704863548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.003497422176263</v>
+        <v>1.209479484444214</v>
       </c>
       <c r="D10">
-        <v>0.9953120702995987</v>
+        <v>0.7256497234335225</v>
       </c>
       <c r="E10">
-        <v>0.9999738403656482</v>
+        <v>0.7256497234335225</v>
       </c>
       <c r="F10">
-        <v>1.003497422176263</v>
+        <v>0.9964161432079742</v>
       </c>
       <c r="G10">
-        <v>0.9997407343215965</v>
+        <v>1.058533728278057</v>
       </c>
       <c r="H10">
-        <v>0.9979672788625095</v>
+        <v>0.9814835081493761</v>
       </c>
       <c r="I10">
-        <v>1.001001121413497</v>
+        <v>0.8807925248650751</v>
       </c>
       <c r="J10">
-        <v>0.9953120702995987</v>
+        <v>1.209479484444214</v>
       </c>
       <c r="K10">
-        <v>1.003497422176263</v>
+        <v>1.209479484444214</v>
       </c>
       <c r="L10">
-        <v>0.9999738403656482</v>
+        <v>0.9964161432079742</v>
       </c>
       <c r="M10">
-        <v>0.9976429553326234</v>
+        <v>0.8610329333207484</v>
       </c>
       <c r="N10">
-        <v>0.9976429553326234</v>
+        <v>0.8610329333207484</v>
       </c>
       <c r="O10">
-        <v>0.9977510631759188</v>
+        <v>0.867619463835524</v>
       </c>
       <c r="P10">
-        <v>0.9995944442805033</v>
+        <v>0.9771817836952369</v>
       </c>
       <c r="Q10">
-        <v>0.9995944442805035</v>
+        <v>0.9771817836952369</v>
       </c>
       <c r="R10">
-        <v>1.000570188754443</v>
+        <v>1.035256208882481</v>
       </c>
       <c r="S10">
-        <v>1.000570188754443</v>
+        <v>1.035256208882481</v>
       </c>
       <c r="T10">
-        <v>0.9995820779065188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.9753925187297031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00618286021359</v>
+        <v>0.9367330698355292</v>
       </c>
       <c r="D11">
-        <v>0.9915881753438976</v>
+        <v>1.266826151276914</v>
       </c>
       <c r="E11">
-        <v>0.9999987182507969</v>
+        <v>1.266826151276914</v>
       </c>
       <c r="F11">
-        <v>1.00618286021359</v>
+        <v>0.9330382742604902</v>
       </c>
       <c r="G11">
-        <v>0.9996445299662958</v>
+        <v>0.934115472259727</v>
       </c>
       <c r="H11">
-        <v>0.9963393628301803</v>
+        <v>0.8290343390453783</v>
       </c>
       <c r="I11">
-        <v>1.001801667355784</v>
+        <v>1.142892275327232</v>
       </c>
       <c r="J11">
-        <v>0.9915881753438976</v>
+        <v>0.9367330698355292</v>
       </c>
       <c r="K11">
-        <v>1.00618286021359</v>
+        <v>0.9367330698355292</v>
       </c>
       <c r="L11">
-        <v>0.9999987182507969</v>
+        <v>0.9330382742604902</v>
       </c>
       <c r="M11">
-        <v>0.9957934467973473</v>
+        <v>1.099932212768702</v>
       </c>
       <c r="N11">
-        <v>0.9957934467973473</v>
+        <v>1.099932212768702</v>
       </c>
       <c r="O11">
-        <v>0.9959754188082917</v>
+        <v>1.114252233621545</v>
       </c>
       <c r="P11">
-        <v>0.9992565846027617</v>
+        <v>1.045532498457644</v>
       </c>
       <c r="Q11">
-        <v>0.9992565846027617</v>
+        <v>1.045532498457644</v>
       </c>
       <c r="R11">
-        <v>1.000988153505469</v>
+        <v>1.018332641302115</v>
       </c>
       <c r="S11">
-        <v>1.000988153505469</v>
+        <v>1.018332641302115</v>
       </c>
       <c r="T11">
-        <v>0.9992592189934243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>1.007106597000878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9877932451931219</v>
+        <v>1.060931996421052</v>
       </c>
       <c r="D12">
-        <v>0.9842976226294282</v>
+        <v>0.9275854057052615</v>
       </c>
       <c r="E12">
-        <v>1.009648920589846</v>
+        <v>0.9275854057052615</v>
       </c>
       <c r="F12">
-        <v>0.9877932451931219</v>
+        <v>0.9961776594421059</v>
       </c>
       <c r="G12">
-        <v>1.0123530879069</v>
+        <v>1.01505647211579</v>
       </c>
       <c r="H12">
-        <v>0.9958367111768504</v>
+        <v>0.9871383148947361</v>
       </c>
       <c r="I12">
-        <v>1.003277000515179</v>
+        <v>0.9697671843894717</v>
       </c>
       <c r="J12">
-        <v>0.9842976226294282</v>
+        <v>1.060931996421052</v>
       </c>
       <c r="K12">
-        <v>0.9877932451931219</v>
+        <v>1.060931996421052</v>
       </c>
       <c r="L12">
-        <v>1.009648920589846</v>
+        <v>0.9961776594421059</v>
       </c>
       <c r="M12">
-        <v>0.9969732716096373</v>
+        <v>0.9618815325736837</v>
       </c>
       <c r="N12">
-        <v>0.9969732716096373</v>
+        <v>0.9618815325736837</v>
       </c>
       <c r="O12">
-        <v>0.9965944181320417</v>
+        <v>0.9645100831789465</v>
       </c>
       <c r="P12">
-        <v>0.9939132628041323</v>
+        <v>0.9948983538561397</v>
       </c>
       <c r="Q12">
-        <v>0.9939132628041323</v>
+        <v>0.9948983538561397</v>
       </c>
       <c r="R12">
-        <v>0.9923832584013796</v>
+        <v>1.011406764497368</v>
       </c>
       <c r="S12">
-        <v>0.9923832584013796</v>
+        <v>1.011406764497368</v>
       </c>
       <c r="T12">
-        <v>0.9988677646685543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9927761721614029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.012417350723668</v>
+        <v>0.9848156145743401</v>
       </c>
       <c r="D13">
-        <v>1.008235246009658</v>
+        <v>1.045533205251835</v>
       </c>
       <c r="E13">
-        <v>0.9937204182804564</v>
+        <v>1.045533205251835</v>
       </c>
       <c r="F13">
-        <v>1.012417350723668</v>
+        <v>0.9912244128686374</v>
       </c>
       <c r="G13">
-        <v>1.001769513228698</v>
+        <v>0.9893559544864849</v>
       </c>
       <c r="H13">
-        <v>0.9972891075569357</v>
+        <v>0.9803161001929673</v>
       </c>
       <c r="I13">
-        <v>0.9991714166296328</v>
+        <v>1.022144696569696</v>
       </c>
       <c r="J13">
-        <v>1.008235246009658</v>
+        <v>0.9848156145743401</v>
       </c>
       <c r="K13">
-        <v>1.012417350723668</v>
+        <v>0.9848156145743401</v>
       </c>
       <c r="L13">
-        <v>0.9937204182804564</v>
+        <v>0.9912244128686374</v>
       </c>
       <c r="M13">
-        <v>1.000977832145057</v>
+        <v>1.018378809060236</v>
       </c>
       <c r="N13">
-        <v>1.000977832145057</v>
+        <v>1.018378809060236</v>
       </c>
       <c r="O13">
-        <v>0.99974825728235</v>
+        <v>1.019634104896723</v>
       </c>
       <c r="P13">
-        <v>1.004791005004594</v>
+        <v>1.007191077564938</v>
       </c>
       <c r="Q13">
-        <v>1.004791005004594</v>
+        <v>1.007191077564938</v>
       </c>
       <c r="R13">
-        <v>1.006697591434363</v>
+        <v>1.001597211817288</v>
       </c>
       <c r="S13">
-        <v>1.006697591434363</v>
+        <v>1.001597211817288</v>
       </c>
       <c r="T13">
-        <v>1.002100508738175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.00223166399066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.026238597490308</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="D14">
-        <v>0.3714423812481314</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="E14">
-        <v>1.231504511976268</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="F14">
-        <v>1.026238597490308</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="G14">
-        <v>1.666904030482522</v>
+        <v>1.101462400000001</v>
       </c>
       <c r="H14">
-        <v>0.6015906712504765</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="I14">
-        <v>1.171660200104622</v>
+        <v>0.7938064499999996</v>
       </c>
       <c r="J14">
-        <v>0.3714423812481314</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="K14">
-        <v>1.026238597490308</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="L14">
-        <v>1.231504511976268</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="M14">
-        <v>0.8014734466121995</v>
+        <v>0.7573502400000005</v>
       </c>
       <c r="N14">
-        <v>0.8014734466121995</v>
+        <v>0.7573502400000005</v>
       </c>
       <c r="O14">
-        <v>0.7348458548249585</v>
+        <v>0.7695023100000001</v>
       </c>
       <c r="P14">
-        <v>0.8763951635715689</v>
+        <v>0.9608854600000001</v>
       </c>
       <c r="Q14">
-        <v>0.8763951635715689</v>
+        <v>0.9608854600000001</v>
       </c>
       <c r="R14">
-        <v>0.9138560220512537</v>
+        <v>1.06265307</v>
       </c>
       <c r="S14">
-        <v>0.9138560220512537</v>
+        <v>1.06265307</v>
       </c>
       <c r="T14">
-        <v>1.011556732092054</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>0.9566266583333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.112333449944351</v>
+        <v>1.3679559</v>
       </c>
       <c r="D15">
-        <v>0.7547194126561589</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="E15">
-        <v>1.031417962512543</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="F15">
-        <v>1.112333449944351</v>
+        <v>0.99179431</v>
       </c>
       <c r="G15">
-        <v>1.054495661141747</v>
+        <v>1.1014624</v>
       </c>
       <c r="H15">
-        <v>0.8896802287133405</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="I15">
-        <v>1.055008481145014</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="J15">
-        <v>0.7547194126561589</v>
+        <v>1.3679559</v>
       </c>
       <c r="K15">
-        <v>1.112333449944351</v>
+        <v>1.3679559</v>
       </c>
       <c r="L15">
-        <v>1.031417962512543</v>
+        <v>0.99179431</v>
       </c>
       <c r="M15">
-        <v>0.8930686875843509</v>
+        <v>0.75735024</v>
       </c>
       <c r="N15">
-        <v>0.8930686875843509</v>
+        <v>0.75735024</v>
       </c>
       <c r="O15">
-        <v>0.8919392012940142</v>
+        <v>0.76950231</v>
       </c>
       <c r="P15">
-        <v>0.9661569417043511</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q15">
-        <v>0.9661569417043511</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R15">
-        <v>1.002701068764351</v>
+        <v>1.06265307</v>
       </c>
       <c r="S15">
-        <v>1.002701068764351</v>
+        <v>1.06265307</v>
       </c>
       <c r="T15">
-        <v>0.9829425326855256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9566266583333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997853870358937</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="D16">
-        <v>1.000245392226936</v>
+        <v>2.5748425</v>
       </c>
       <c r="E16">
-        <v>1.000050915806888</v>
+        <v>2.5748425</v>
       </c>
       <c r="F16">
-        <v>0.9997853870358937</v>
+        <v>0.67340451</v>
       </c>
       <c r="G16">
-        <v>1.000353759583225</v>
+        <v>0.62952744</v>
       </c>
       <c r="H16">
-        <v>0.9999889302490159</v>
+        <v>0.25020352</v>
       </c>
       <c r="I16">
-        <v>0.9999734992881617</v>
+        <v>1.7748516</v>
       </c>
       <c r="J16">
-        <v>1.000245392226936</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="K16">
-        <v>0.9997853870358937</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="L16">
-        <v>1.000050915806888</v>
+        <v>0.67340451</v>
       </c>
       <c r="M16">
-        <v>1.000148154016912</v>
+        <v>1.624123505</v>
       </c>
       <c r="N16">
-        <v>1.000148154016912</v>
+        <v>1.624123505</v>
       </c>
       <c r="O16">
-        <v>1.000095079427613</v>
+        <v>1.674366203333333</v>
       </c>
       <c r="P16">
-        <v>1.000027231689906</v>
+        <v>1.25705106</v>
       </c>
       <c r="Q16">
-        <v>1.000027231689906</v>
+        <v>1.25705106</v>
       </c>
       <c r="R16">
-        <v>0.9999667705264029</v>
+        <v>1.0735148375</v>
       </c>
       <c r="S16">
-        <v>0.9999667705264029</v>
+        <v>1.0735148375</v>
       </c>
       <c r="T16">
-        <v>1.000066314031687</v>
+        <v>1.070955956666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001008076840504</v>
+        <v>0.94939498</v>
       </c>
       <c r="D17">
-        <v>0.9988771609974559</v>
+        <v>0.96376931</v>
       </c>
       <c r="E17">
-        <v>0.9998638699249708</v>
+        <v>0.96376931</v>
       </c>
       <c r="F17">
-        <v>1.001008076840504</v>
+        <v>1.0324025</v>
       </c>
       <c r="G17">
-        <v>0.9993044706136848</v>
+        <v>1.008202</v>
       </c>
       <c r="H17">
-        <v>0.9996953779571348</v>
+        <v>1.040535</v>
       </c>
       <c r="I17">
-        <v>1.000197454765357</v>
+        <v>0.99171065</v>
       </c>
       <c r="J17">
-        <v>0.9988771609974559</v>
+        <v>0.94939498</v>
       </c>
       <c r="K17">
-        <v>1.001008076840504</v>
+        <v>0.94939498</v>
       </c>
       <c r="L17">
-        <v>0.9998638699249708</v>
+        <v>1.0324025</v>
       </c>
       <c r="M17">
-        <v>0.9993705154612134</v>
+        <v>0.9980859049999999</v>
       </c>
       <c r="N17">
-        <v>0.9993705154612134</v>
+        <v>0.9980859049999999</v>
       </c>
       <c r="O17">
-        <v>0.9994788029598539</v>
+        <v>0.99596082</v>
       </c>
       <c r="P17">
-        <v>0.9999163692543102</v>
+        <v>0.9818555966666667</v>
       </c>
       <c r="Q17">
-        <v>0.99991636925431</v>
+        <v>0.9818555966666667</v>
       </c>
       <c r="R17">
-        <v>1.000189296150858</v>
+        <v>0.9737404425</v>
       </c>
       <c r="S17">
-        <v>1.000189296150858</v>
+        <v>0.9737404425</v>
       </c>
       <c r="T17">
-        <v>0.9998244018498511</v>
+        <v>0.9976690733333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9983271230102929</v>
+        <v>0.9630482964383559</v>
       </c>
       <c r="D18">
-        <v>1.000014184114165</v>
+        <v>0.921814678219178</v>
       </c>
       <c r="E18">
-        <v>1.001021369692388</v>
+        <v>0.921814678219178</v>
       </c>
       <c r="F18">
-        <v>0.9983271230102929</v>
+        <v>1.053987541780822</v>
       </c>
       <c r="G18">
-        <v>1.003836650481525</v>
+        <v>1.027474637260274</v>
       </c>
       <c r="H18">
-        <v>0.9990806161380358</v>
+        <v>1.17688825260274</v>
       </c>
       <c r="I18">
-        <v>1.000235868042641</v>
+        <v>0.9271855960273977</v>
       </c>
       <c r="J18">
-        <v>1.000014184114165</v>
+        <v>0.9630482964383559</v>
       </c>
       <c r="K18">
-        <v>0.9983271230102929</v>
+        <v>0.9630482964383559</v>
       </c>
       <c r="L18">
-        <v>1.001021369692388</v>
+        <v>1.053987541780822</v>
       </c>
       <c r="M18">
-        <v>1.000517776903276</v>
+        <v>0.9879011100000001</v>
       </c>
       <c r="N18">
-        <v>1.000517776903276</v>
+        <v>0.9879011100000001</v>
       </c>
       <c r="O18">
-        <v>1.000038723314863</v>
+        <v>0.9676626053424661</v>
       </c>
       <c r="P18">
-        <v>0.9997875589389486</v>
+        <v>0.9796168388127854</v>
       </c>
       <c r="Q18">
-        <v>0.9997875589389486</v>
+        <v>0.9796168388127854</v>
       </c>
       <c r="R18">
-        <v>0.9994224499567846</v>
+        <v>0.975474703219178</v>
       </c>
       <c r="S18">
-        <v>0.9994224499567846</v>
+        <v>0.975474703219178</v>
       </c>
       <c r="T18">
-        <v>1.000419301913175</v>
+        <v>1.011733167054795</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9926963390128842</v>
+        <v>0.9567933405263159</v>
       </c>
       <c r="D19">
-        <v>1.002882669257294</v>
+        <v>0.9600666142105262</v>
       </c>
       <c r="E19">
-        <v>1.003321543673509</v>
+        <v>0.9600666142105262</v>
       </c>
       <c r="F19">
-        <v>0.9926963390128842</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="G19">
-        <v>1.013245248055121</v>
+        <v>1.017975865789474</v>
       </c>
       <c r="H19">
-        <v>0.9979285438023731</v>
+        <v>1.149672160526316</v>
       </c>
       <c r="I19">
-        <v>1.000223808428107</v>
+        <v>0.9477376073684212</v>
       </c>
       <c r="J19">
-        <v>1.002882669257294</v>
+        <v>0.9567933405263159</v>
       </c>
       <c r="K19">
-        <v>0.9926963390128842</v>
+        <v>0.9567933405263159</v>
       </c>
       <c r="L19">
-        <v>1.003321543673509</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="M19">
-        <v>1.003102106465402</v>
+        <v>1.001610240526316</v>
       </c>
       <c r="N19">
-        <v>1.003102106465402</v>
+        <v>1.001610240526316</v>
       </c>
       <c r="O19">
-        <v>1.001377585577725</v>
+        <v>0.9836526961403509</v>
       </c>
       <c r="P19">
-        <v>0.9996335173145624</v>
+        <v>0.9866712738596491</v>
       </c>
       <c r="Q19">
-        <v>0.9996335173145624</v>
+        <v>0.9866712738596491</v>
       </c>
       <c r="R19">
-        <v>0.9978992227391428</v>
+        <v>0.9792017905263158</v>
       </c>
       <c r="S19">
-        <v>0.9978992227391428</v>
+        <v>0.9792017905263158</v>
       </c>
       <c r="T19">
-        <v>1.001716358704881</v>
+        <v>1.012566575877193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9505445952631577</v>
+      </c>
+      <c r="D20">
+        <v>1.463372223157895</v>
+      </c>
+      <c r="E20">
+        <v>1.463372223157895</v>
+      </c>
+      <c r="F20">
+        <v>0.8523795331578947</v>
+      </c>
+      <c r="G20">
+        <v>0.8809990821052632</v>
+      </c>
+      <c r="H20">
+        <v>0.6172963621052632</v>
+      </c>
+      <c r="I20">
+        <v>1.262084492631579</v>
+      </c>
+      <c r="J20">
+        <v>0.9505445952631577</v>
+      </c>
+      <c r="K20">
+        <v>0.9505445952631577</v>
+      </c>
+      <c r="L20">
+        <v>0.8523795331578947</v>
+      </c>
+      <c r="M20">
+        <v>1.157875878157895</v>
+      </c>
+      <c r="N20">
+        <v>1.157875878157895</v>
+      </c>
+      <c r="O20">
+        <v>1.192612082982456</v>
+      </c>
+      <c r="P20">
+        <v>1.088765450526316</v>
+      </c>
+      <c r="Q20">
+        <v>1.088765450526316</v>
+      </c>
+      <c r="R20">
+        <v>1.054210236710526</v>
+      </c>
+      <c r="S20">
+        <v>1.054210236710526</v>
+      </c>
+      <c r="T20">
+        <v>1.004446048070176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.026238597490308</v>
+      </c>
+      <c r="D21">
+        <v>0.3714423812481314</v>
+      </c>
+      <c r="E21">
+        <v>0.3714423812481314</v>
+      </c>
+      <c r="F21">
+        <v>1.231504511976268</v>
+      </c>
+      <c r="G21">
+        <v>1.171660200104622</v>
+      </c>
+      <c r="H21">
+        <v>1.666904030482522</v>
+      </c>
+      <c r="I21">
+        <v>0.6015906712504765</v>
+      </c>
+      <c r="J21">
+        <v>1.026238597490308</v>
+      </c>
+      <c r="K21">
+        <v>1.026238597490308</v>
+      </c>
+      <c r="L21">
+        <v>1.231504511976268</v>
+      </c>
+      <c r="M21">
+        <v>0.8014734466121994</v>
+      </c>
+      <c r="N21">
+        <v>0.8014734466121994</v>
+      </c>
+      <c r="O21">
+        <v>0.7348458548249585</v>
+      </c>
+      <c r="P21">
+        <v>0.8763951635715689</v>
+      </c>
+      <c r="Q21">
+        <v>0.8763951635715689</v>
+      </c>
+      <c r="R21">
+        <v>0.9138560220512537</v>
+      </c>
+      <c r="S21">
+        <v>0.9138560220512537</v>
+      </c>
+      <c r="T21">
+        <v>1.011556732092054</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.112333449944351</v>
+      </c>
+      <c r="D22">
+        <v>0.7547194126561589</v>
+      </c>
+      <c r="E22">
+        <v>0.7547194126561589</v>
+      </c>
+      <c r="F22">
+        <v>1.031417962512543</v>
+      </c>
+      <c r="G22">
+        <v>1.055008481145014</v>
+      </c>
+      <c r="H22">
+        <v>1.054495661141747</v>
+      </c>
+      <c r="I22">
+        <v>0.8896802287133405</v>
+      </c>
+      <c r="J22">
+        <v>1.112333449944351</v>
+      </c>
+      <c r="K22">
+        <v>1.112333449944351</v>
+      </c>
+      <c r="L22">
+        <v>1.031417962512543</v>
+      </c>
+      <c r="M22">
+        <v>0.8930686875843509</v>
+      </c>
+      <c r="N22">
+        <v>0.8930686875843509</v>
+      </c>
+      <c r="O22">
+        <v>0.8919392012940142</v>
+      </c>
+      <c r="P22">
+        <v>0.9661569417043511</v>
+      </c>
+      <c r="Q22">
+        <v>0.9661569417043511</v>
+      </c>
+      <c r="R22">
+        <v>1.002701068764351</v>
+      </c>
+      <c r="S22">
+        <v>1.002701068764351</v>
+      </c>
+      <c r="T22">
+        <v>0.9829425326855256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9877932451931219</v>
+      </c>
+      <c r="D23">
+        <v>0.9842976226294285</v>
+      </c>
+      <c r="E23">
+        <v>0.9842976226294285</v>
+      </c>
+      <c r="F23">
+        <v>1.009648920589846</v>
+      </c>
+      <c r="G23">
+        <v>1.003277000515179</v>
+      </c>
+      <c r="H23">
+        <v>1.0123530879069</v>
+      </c>
+      <c r="I23">
+        <v>0.9958367111768501</v>
+      </c>
+      <c r="J23">
+        <v>0.9877932451931219</v>
+      </c>
+      <c r="K23">
+        <v>0.9877932451931219</v>
+      </c>
+      <c r="L23">
+        <v>1.009648920589846</v>
+      </c>
+      <c r="M23">
+        <v>0.9969732716096376</v>
+      </c>
+      <c r="N23">
+        <v>0.9969732716096376</v>
+      </c>
+      <c r="O23">
+        <v>0.9965944181320417</v>
+      </c>
+      <c r="P23">
+        <v>0.9939132628041323</v>
+      </c>
+      <c r="Q23">
+        <v>0.9939132628041323</v>
+      </c>
+      <c r="R23">
+        <v>0.9923832584013796</v>
+      </c>
+      <c r="S23">
+        <v>0.9923832584013796</v>
+      </c>
+      <c r="T23">
+        <v>0.9988677646685543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="D24">
+        <v>1.008235246009658</v>
+      </c>
+      <c r="E24">
+        <v>1.008235246009658</v>
+      </c>
+      <c r="F24">
+        <v>0.9937204182804563</v>
+      </c>
+      <c r="G24">
+        <v>0.9991714166296328</v>
+      </c>
+      <c r="H24">
+        <v>1.001769513228698</v>
+      </c>
+      <c r="I24">
+        <v>0.9972891075569357</v>
+      </c>
+      <c r="J24">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="K24">
+        <v>1.012417350723668</v>
+      </c>
+      <c r="L24">
+        <v>0.9937204182804563</v>
+      </c>
+      <c r="M24">
+        <v>1.000977832145057</v>
+      </c>
+      <c r="N24">
+        <v>1.000977832145057</v>
+      </c>
+      <c r="O24">
+        <v>0.9997482572823498</v>
+      </c>
+      <c r="P24">
+        <v>1.004791005004594</v>
+      </c>
+      <c r="Q24">
+        <v>1.004791005004594</v>
+      </c>
+      <c r="R24">
+        <v>1.006697591434362</v>
+      </c>
+      <c r="S24">
+        <v>1.006697591434362</v>
+      </c>
+      <c r="T24">
+        <v>1.002100508738175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7094658101932655</v>
+      </c>
+      <c r="D25">
+        <v>1.987291489559742</v>
+      </c>
+      <c r="E25">
+        <v>1.987291489559742</v>
+      </c>
+      <c r="F25">
+        <v>0.7807582616836947</v>
+      </c>
+      <c r="G25">
+        <v>0.7599732911573341</v>
+      </c>
+      <c r="H25">
+        <v>0.4456680743781916</v>
+      </c>
+      <c r="I25">
+        <v>1.517071100800389</v>
+      </c>
+      <c r="J25">
+        <v>0.7094658101932655</v>
+      </c>
+      <c r="K25">
+        <v>0.7094658101932655</v>
+      </c>
+      <c r="L25">
+        <v>0.7807582616836947</v>
+      </c>
+      <c r="M25">
+        <v>1.384024875621718</v>
+      </c>
+      <c r="N25">
+        <v>1.384024875621718</v>
+      </c>
+      <c r="O25">
+        <v>1.428373617347942</v>
+      </c>
+      <c r="P25">
+        <v>1.159171853812234</v>
+      </c>
+      <c r="Q25">
+        <v>1.159171853812234</v>
+      </c>
+      <c r="R25">
+        <v>1.046745342907492</v>
+      </c>
+      <c r="S25">
+        <v>1.046745342907492</v>
+      </c>
+      <c r="T25">
+        <v>1.033371337962103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="D26">
+        <v>1.220094472832538</v>
+      </c>
+      <c r="E26">
+        <v>1.220094472832538</v>
+      </c>
+      <c r="F26">
+        <v>0.9342608909187007</v>
+      </c>
+      <c r="G26">
+        <v>0.94084302729389</v>
+      </c>
+      <c r="H26">
+        <v>0.8001049906340567</v>
+      </c>
+      <c r="I26">
+        <v>1.137938637739547</v>
+      </c>
+      <c r="J26">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="K26">
+        <v>0.956837608256232</v>
+      </c>
+      <c r="L26">
+        <v>0.9342608909187007</v>
+      </c>
+      <c r="M26">
+        <v>1.077177681875619</v>
+      </c>
+      <c r="N26">
+        <v>1.077177681875619</v>
+      </c>
+      <c r="O26">
+        <v>1.097431333830262</v>
+      </c>
+      <c r="P26">
+        <v>1.03706432400249</v>
+      </c>
+      <c r="Q26">
+        <v>1.03706432400249</v>
+      </c>
+      <c r="R26">
+        <v>1.017007645065926</v>
+      </c>
+      <c r="S26">
+        <v>1.017007645065926</v>
+      </c>
+      <c r="T26">
+        <v>0.9983466046124941</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="D27">
+        <v>0.9800743683866491</v>
+      </c>
+      <c r="E27">
+        <v>0.9800743683866491</v>
+      </c>
+      <c r="F27">
+        <v>1.008149913662128</v>
+      </c>
+      <c r="G27">
+        <v>1.005165363597813</v>
+      </c>
+      <c r="H27">
+        <v>1.01973748468589</v>
+      </c>
+      <c r="I27">
+        <v>0.9888658016855725</v>
+      </c>
+      <c r="J27">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="K27">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="L27">
+        <v>1.008149913662128</v>
+      </c>
+      <c r="M27">
+        <v>0.9941121410243884</v>
+      </c>
+      <c r="N27">
+        <v>0.9941121410243884</v>
+      </c>
+      <c r="O27">
+        <v>0.9923633612447831</v>
+      </c>
+      <c r="P27">
+        <v>0.9953790512918671</v>
+      </c>
+      <c r="Q27">
+        <v>0.9953790512918671</v>
+      </c>
+      <c r="R27">
+        <v>0.9960125064256066</v>
+      </c>
+      <c r="S27">
+        <v>0.9960125064256066</v>
+      </c>
+      <c r="T27">
+        <v>0.999984300640813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9423301493246893</v>
+      </c>
+      <c r="D28">
+        <v>1.097653965657105</v>
+      </c>
+      <c r="E28">
+        <v>1.097653965657105</v>
+      </c>
+      <c r="F28">
+        <v>0.9947485351819764</v>
+      </c>
+      <c r="G28">
+        <v>0.9794662024351659</v>
+      </c>
+      <c r="H28">
+        <v>1.001354247840721</v>
+      </c>
+      <c r="I28">
+        <v>1.039172588175999</v>
+      </c>
+      <c r="J28">
+        <v>0.9423301493246893</v>
+      </c>
+      <c r="K28">
+        <v>0.9423301493246893</v>
+      </c>
+      <c r="L28">
+        <v>0.9947485351819764</v>
+      </c>
+      <c r="M28">
+        <v>1.046201250419541</v>
+      </c>
+      <c r="N28">
+        <v>1.046201250419541</v>
+      </c>
+      <c r="O28">
+        <v>1.043858363005027</v>
+      </c>
+      <c r="P28">
+        <v>1.01157755005459</v>
+      </c>
+      <c r="Q28">
+        <v>1.01157755005459</v>
+      </c>
+      <c r="R28">
+        <v>0.994265699872115</v>
+      </c>
+      <c r="S28">
+        <v>0.994265699872115</v>
+      </c>
+      <c r="T28">
+        <v>1.009120948102609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9108845041773143</v>
+      </c>
+      <c r="D29">
+        <v>1.144707517441808</v>
+      </c>
+      <c r="E29">
+        <v>1.144707517441808</v>
+      </c>
+      <c r="F29">
+        <v>0.9897456565242705</v>
+      </c>
+      <c r="G29">
+        <v>0.9667540619969163</v>
+      </c>
+      <c r="H29">
+        <v>0.9689300330126085</v>
+      </c>
+      <c r="I29">
+        <v>1.071568426820827</v>
+      </c>
+      <c r="J29">
+        <v>0.9108845041773143</v>
+      </c>
+      <c r="K29">
+        <v>0.9108845041773143</v>
+      </c>
+      <c r="L29">
+        <v>0.9897456565242705</v>
+      </c>
+      <c r="M29">
+        <v>1.067226586983039</v>
+      </c>
+      <c r="N29">
+        <v>1.067226586983039</v>
+      </c>
+      <c r="O29">
+        <v>1.068673866928969</v>
+      </c>
+      <c r="P29">
+        <v>1.015112559381131</v>
+      </c>
+      <c r="Q29">
+        <v>1.015112559381131</v>
+      </c>
+      <c r="R29">
+        <v>0.9890555455801768</v>
+      </c>
+      <c r="S29">
+        <v>0.9890555455801768</v>
+      </c>
+      <c r="T29">
+        <v>1.008765033328958</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.940869781025288</v>
+        <v>1.038241207505334</v>
       </c>
       <c r="D4">
-        <v>1.19656238909308</v>
+        <v>0.9389187403456561</v>
       </c>
       <c r="E4">
-        <v>1.19656238909308</v>
+        <v>0.9389187403456561</v>
       </c>
       <c r="F4">
-        <v>0.9577698403476411</v>
+        <v>1.003298826768173</v>
       </c>
       <c r="G4">
-        <v>0.952842707031505</v>
+        <v>1.013486107553851</v>
       </c>
       <c r="H4">
-        <v>0.8969265250894211</v>
+        <v>1.006255349760796</v>
       </c>
       <c r="I4">
-        <v>1.100438683636427</v>
+        <v>0.9722054178907777</v>
       </c>
       <c r="J4">
-        <v>0.940869781025288</v>
+        <v>1.038241207505334</v>
       </c>
       <c r="K4">
-        <v>0.940869781025288</v>
+        <v>1.038241207505334</v>
       </c>
       <c r="L4">
-        <v>0.9577698403476411</v>
+        <v>1.003298826768173</v>
       </c>
       <c r="M4">
-        <v>1.077166114720361</v>
+        <v>0.9711087835569143</v>
       </c>
       <c r="N4">
-        <v>1.077166114720361</v>
+        <v>0.9711087835569143</v>
       </c>
       <c r="O4">
-        <v>1.084923637692383</v>
+        <v>0.9714743283348688</v>
       </c>
       <c r="P4">
-        <v>1.03173400348867</v>
+        <v>0.9934862582063877</v>
       </c>
       <c r="Q4">
-        <v>1.03173400348867</v>
+        <v>0.9934862582063877</v>
       </c>
       <c r="R4">
-        <v>1.009017947872824</v>
+        <v>1.004674995531124</v>
       </c>
       <c r="S4">
-        <v>1.009017947872824</v>
+        <v>1.004674995531124</v>
       </c>
       <c r="T4">
-        <v>1.007568321037227</v>
+        <v>0.9954009416374313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.044689889834293</v>
+        <v>0.9075177189352477</v>
       </c>
       <c r="D5">
-        <v>0.933318173451009</v>
+        <v>1.560709027560744</v>
       </c>
       <c r="E5">
-        <v>0.933318173451009</v>
+        <v>1.560709027560744</v>
       </c>
       <c r="F5">
-        <v>1.002281219164263</v>
+        <v>0.8379125430050716</v>
       </c>
       <c r="G5">
-        <v>1.014645260533142</v>
+        <v>0.8582055962772724</v>
       </c>
       <c r="H5">
-        <v>1.004140352694527</v>
+        <v>0.5817437372523757</v>
       </c>
       <c r="I5">
-        <v>0.9697317517651298</v>
+        <v>1.31044248474102</v>
       </c>
       <c r="J5">
-        <v>1.044689889834293</v>
+        <v>0.9075177189352477</v>
       </c>
       <c r="K5">
-        <v>1.044689889834293</v>
+        <v>0.9075177189352477</v>
       </c>
       <c r="L5">
-        <v>1.002281219164263</v>
+        <v>0.8379125430050716</v>
       </c>
       <c r="M5">
-        <v>0.967799696307636</v>
+        <v>1.199310785282908</v>
       </c>
       <c r="N5">
-        <v>0.967799696307636</v>
+        <v>1.199310785282908</v>
       </c>
       <c r="O5">
-        <v>0.9684437147934672</v>
+        <v>1.236354685102279</v>
       </c>
       <c r="P5">
-        <v>0.9934297608165216</v>
+        <v>1.102046429833688</v>
       </c>
       <c r="Q5">
-        <v>0.9934297608165216</v>
+        <v>1.102046429833688</v>
       </c>
       <c r="R5">
-        <v>1.006244793070964</v>
+        <v>1.053414252109078</v>
       </c>
       <c r="S5">
-        <v>1.006244793070964</v>
+        <v>1.053414252109078</v>
       </c>
       <c r="T5">
-        <v>0.9948011079070606</v>
+        <v>1.009421851295289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.203609028101556</v>
+        <v>0.940869781025288</v>
       </c>
       <c r="D6">
-        <v>0.730174542088159</v>
+        <v>1.19656238909308</v>
       </c>
       <c r="E6">
-        <v>0.730174542088159</v>
+        <v>1.19656238909308</v>
       </c>
       <c r="F6">
-        <v>0.9975540872998958</v>
+        <v>0.9577698403476411</v>
       </c>
       <c r="G6">
-        <v>1.057628407037676</v>
+        <v>0.952842707031505</v>
       </c>
       <c r="H6">
-        <v>0.9839799347163564</v>
+        <v>0.8969265250894211</v>
       </c>
       <c r="I6">
-        <v>0.8827070272708223</v>
+        <v>1.100438683636427</v>
       </c>
       <c r="J6">
-        <v>1.203609028101556</v>
+        <v>0.940869781025288</v>
       </c>
       <c r="K6">
-        <v>1.203609028101556</v>
+        <v>0.940869781025288</v>
       </c>
       <c r="L6">
-        <v>0.9975540872998958</v>
+        <v>0.9577698403476411</v>
       </c>
       <c r="M6">
-        <v>0.8638643146940275</v>
+        <v>1.077166114720361</v>
       </c>
       <c r="N6">
-        <v>0.8638643146940275</v>
+        <v>1.077166114720361</v>
       </c>
       <c r="O6">
-        <v>0.8701452188862925</v>
+        <v>1.084923637692383</v>
       </c>
       <c r="P6">
-        <v>0.9771125524965371</v>
+        <v>1.03173400348867</v>
       </c>
       <c r="Q6">
-        <v>0.9771125524965371</v>
+        <v>1.03173400348867</v>
       </c>
       <c r="R6">
-        <v>1.033736671397792</v>
+        <v>1.009017947872824</v>
       </c>
       <c r="S6">
-        <v>1.033736671397792</v>
+        <v>1.009017947872824</v>
       </c>
       <c r="T6">
-        <v>0.9759421710857442</v>
+        <v>1.007568321037227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9982634527254259</v>
+        <v>1.044689889834293</v>
       </c>
       <c r="D7">
-        <v>0.9984134713364649</v>
+        <v>0.933318173451009</v>
       </c>
       <c r="E7">
-        <v>0.9984134713364649</v>
+        <v>0.933318173451009</v>
       </c>
       <c r="F7">
-        <v>1.0017089115085</v>
+        <v>1.002281219164263</v>
       </c>
       <c r="G7">
-        <v>1.000704401219166</v>
+        <v>1.014645260533142</v>
       </c>
       <c r="H7">
-        <v>1.005903916452593</v>
+        <v>1.004140352694527</v>
       </c>
       <c r="I7">
-        <v>0.997955379753225</v>
+        <v>0.9697317517651298</v>
       </c>
       <c r="J7">
-        <v>0.9982634527254259</v>
+        <v>1.044689889834293</v>
       </c>
       <c r="K7">
-        <v>0.9982634527254259</v>
+        <v>1.044689889834293</v>
       </c>
       <c r="L7">
-        <v>1.0017089115085</v>
+        <v>1.002281219164263</v>
       </c>
       <c r="M7">
-        <v>1.000061191422482</v>
+        <v>0.967799696307636</v>
       </c>
       <c r="N7">
-        <v>1.000061191422482</v>
+        <v>0.967799696307636</v>
       </c>
       <c r="O7">
-        <v>0.9993592541993966</v>
+        <v>0.9684437147934672</v>
       </c>
       <c r="P7">
-        <v>0.9994619451901302</v>
+        <v>0.9934297608165216</v>
       </c>
       <c r="Q7">
-        <v>0.9994619451901302</v>
+        <v>0.9934297608165216</v>
       </c>
       <c r="R7">
-        <v>0.9991623220739541</v>
+        <v>1.006244793070964</v>
       </c>
       <c r="S7">
-        <v>0.9991623220739541</v>
+        <v>1.006244793070964</v>
       </c>
       <c r="T7">
-        <v>1.000491588832563</v>
+        <v>0.9948011079070606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001008076840504</v>
+        <v>1.203609028101556</v>
       </c>
       <c r="D8">
-        <v>0.998877160997456</v>
+        <v>0.730174542088159</v>
       </c>
       <c r="E8">
-        <v>0.998877160997456</v>
+        <v>0.730174542088159</v>
       </c>
       <c r="F8">
-        <v>0.9998638699249703</v>
+        <v>0.9975540872998958</v>
       </c>
       <c r="G8">
-        <v>1.000197454765357</v>
+        <v>1.057628407037676</v>
       </c>
       <c r="H8">
-        <v>0.9993044706136851</v>
+        <v>0.9839799347163564</v>
       </c>
       <c r="I8">
-        <v>0.9996953779571349</v>
+        <v>0.8827070272708223</v>
       </c>
       <c r="J8">
-        <v>1.001008076840504</v>
+        <v>1.203609028101556</v>
       </c>
       <c r="K8">
-        <v>1.001008076840504</v>
+        <v>1.203609028101556</v>
       </c>
       <c r="L8">
-        <v>0.9998638699249703</v>
+        <v>0.9975540872998958</v>
       </c>
       <c r="M8">
-        <v>0.9993705154612131</v>
+        <v>0.8638643146940275</v>
       </c>
       <c r="N8">
-        <v>0.9993705154612131</v>
+        <v>0.8638643146940275</v>
       </c>
       <c r="O8">
-        <v>0.9994788029598537</v>
+        <v>0.8701452188862925</v>
       </c>
       <c r="P8">
-        <v>0.9999163692543099</v>
+        <v>0.9771125524965371</v>
       </c>
       <c r="Q8">
-        <v>0.99991636925431</v>
+        <v>0.9771125524965371</v>
       </c>
       <c r="R8">
-        <v>1.000189296150858</v>
+        <v>1.033736671397792</v>
       </c>
       <c r="S8">
-        <v>1.000189296150858</v>
+        <v>1.033736671397792</v>
       </c>
       <c r="T8">
-        <v>0.9998244018498511</v>
+        <v>0.9759421710857442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9972743134717317</v>
+        <v>0.9982634527254259</v>
       </c>
       <c r="D9">
-        <v>0.9934429749911399</v>
+        <v>0.9984134713364649</v>
       </c>
       <c r="E9">
-        <v>0.9934429749911399</v>
+        <v>0.9984134713364649</v>
       </c>
       <c r="F9">
-        <v>1.004318576882614</v>
+        <v>1.0017089115085</v>
       </c>
       <c r="G9">
-        <v>1.002264853654778</v>
+        <v>1.000704401219166</v>
       </c>
       <c r="H9">
-        <v>1.014153443099097</v>
+        <v>1.005903916452593</v>
       </c>
       <c r="I9">
-        <v>0.9940340670819293</v>
+        <v>0.997955379753225</v>
       </c>
       <c r="J9">
-        <v>0.9972743134717317</v>
+        <v>0.9982634527254259</v>
       </c>
       <c r="K9">
-        <v>0.9972743134717317</v>
+        <v>0.9982634527254259</v>
       </c>
       <c r="L9">
-        <v>1.004318576882614</v>
+        <v>1.0017089115085</v>
       </c>
       <c r="M9">
-        <v>0.9988807759368772</v>
+        <v>1.000061191422482</v>
       </c>
       <c r="N9">
-        <v>0.9988807759368772</v>
+        <v>1.000061191422482</v>
       </c>
       <c r="O9">
-        <v>0.9972652063185613</v>
+        <v>0.9993592541993966</v>
       </c>
       <c r="P9">
-        <v>0.9983452884484953</v>
+        <v>0.9994619451901302</v>
       </c>
       <c r="Q9">
-        <v>0.9983452884484952</v>
+        <v>0.9994619451901302</v>
       </c>
       <c r="R9">
-        <v>0.9980775447043043</v>
+        <v>0.9991623220739541</v>
       </c>
       <c r="S9">
-        <v>0.9980775447043043</v>
+        <v>0.9991623220739541</v>
       </c>
       <c r="T9">
-        <v>1.000914704863548</v>
+        <v>1.000491588832563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.209479484444214</v>
+        <v>1.001008076840504</v>
       </c>
       <c r="D10">
-        <v>0.7256497234335225</v>
+        <v>0.998877160997456</v>
       </c>
       <c r="E10">
-        <v>0.7256497234335225</v>
+        <v>0.998877160997456</v>
       </c>
       <c r="F10">
-        <v>0.9964161432079742</v>
+        <v>0.9998638699249703</v>
       </c>
       <c r="G10">
-        <v>1.058533728278057</v>
+        <v>1.000197454765357</v>
       </c>
       <c r="H10">
-        <v>0.9814835081493761</v>
+        <v>0.9993044706136851</v>
       </c>
       <c r="I10">
-        <v>0.8807925248650751</v>
+        <v>0.9996953779571349</v>
       </c>
       <c r="J10">
-        <v>1.209479484444214</v>
+        <v>1.001008076840504</v>
       </c>
       <c r="K10">
-        <v>1.209479484444214</v>
+        <v>1.001008076840504</v>
       </c>
       <c r="L10">
-        <v>0.9964161432079742</v>
+        <v>0.9998638699249703</v>
       </c>
       <c r="M10">
-        <v>0.8610329333207484</v>
+        <v>0.9993705154612131</v>
       </c>
       <c r="N10">
-        <v>0.8610329333207484</v>
+        <v>0.9993705154612131</v>
       </c>
       <c r="O10">
-        <v>0.867619463835524</v>
+        <v>0.9994788029598537</v>
       </c>
       <c r="P10">
-        <v>0.9771817836952369</v>
+        <v>0.9999163692543099</v>
       </c>
       <c r="Q10">
-        <v>0.9771817836952369</v>
+        <v>0.99991636925431</v>
       </c>
       <c r="R10">
-        <v>1.035256208882481</v>
+        <v>1.000189296150858</v>
       </c>
       <c r="S10">
-        <v>1.035256208882481</v>
+        <v>1.000189296150858</v>
       </c>
       <c r="T10">
-        <v>0.9753925187297031</v>
+        <v>0.9998244018498511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9367330698355292</v>
+        <v>0.9972743134717317</v>
       </c>
       <c r="D11">
-        <v>1.266826151276914</v>
+        <v>0.9934429749911399</v>
       </c>
       <c r="E11">
-        <v>1.266826151276914</v>
+        <v>0.9934429749911399</v>
       </c>
       <c r="F11">
-        <v>0.9330382742604902</v>
+        <v>1.004318576882614</v>
       </c>
       <c r="G11">
-        <v>0.934115472259727</v>
+        <v>1.002264853654778</v>
       </c>
       <c r="H11">
-        <v>0.8290343390453783</v>
+        <v>1.014153443099097</v>
       </c>
       <c r="I11">
-        <v>1.142892275327232</v>
+        <v>0.9940340670819293</v>
       </c>
       <c r="J11">
-        <v>0.9367330698355292</v>
+        <v>0.9972743134717317</v>
       </c>
       <c r="K11">
-        <v>0.9367330698355292</v>
+        <v>0.9972743134717317</v>
       </c>
       <c r="L11">
-        <v>0.9330382742604902</v>
+        <v>1.004318576882614</v>
       </c>
       <c r="M11">
-        <v>1.099932212768702</v>
+        <v>0.9988807759368772</v>
       </c>
       <c r="N11">
-        <v>1.099932212768702</v>
+        <v>0.9988807759368772</v>
       </c>
       <c r="O11">
-        <v>1.114252233621545</v>
+        <v>0.9972652063185613</v>
       </c>
       <c r="P11">
-        <v>1.045532498457644</v>
+        <v>0.9983452884484953</v>
       </c>
       <c r="Q11">
-        <v>1.045532498457644</v>
+        <v>0.9983452884484952</v>
       </c>
       <c r="R11">
-        <v>1.018332641302115</v>
+        <v>0.9980775447043043</v>
       </c>
       <c r="S11">
-        <v>1.018332641302115</v>
+        <v>0.9980775447043043</v>
       </c>
       <c r="T11">
-        <v>1.007106597000878</v>
+        <v>1.000914704863548</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.060931996421052</v>
+        <v>1.209479484444214</v>
       </c>
       <c r="D12">
-        <v>0.9275854057052615</v>
+        <v>0.7256497234335225</v>
       </c>
       <c r="E12">
-        <v>0.9275854057052615</v>
+        <v>0.7256497234335225</v>
       </c>
       <c r="F12">
-        <v>0.9961776594421059</v>
+        <v>0.9964161432079742</v>
       </c>
       <c r="G12">
-        <v>1.01505647211579</v>
+        <v>1.058533728278057</v>
       </c>
       <c r="H12">
-        <v>0.9871383148947361</v>
+        <v>0.9814835081493761</v>
       </c>
       <c r="I12">
-        <v>0.9697671843894717</v>
+        <v>0.8807925248650751</v>
       </c>
       <c r="J12">
-        <v>1.060931996421052</v>
+        <v>1.209479484444214</v>
       </c>
       <c r="K12">
-        <v>1.060931996421052</v>
+        <v>1.209479484444214</v>
       </c>
       <c r="L12">
-        <v>0.9961776594421059</v>
+        <v>0.9964161432079742</v>
       </c>
       <c r="M12">
-        <v>0.9618815325736837</v>
+        <v>0.8610329333207484</v>
       </c>
       <c r="N12">
-        <v>0.9618815325736837</v>
+        <v>0.8610329333207484</v>
       </c>
       <c r="O12">
-        <v>0.9645100831789465</v>
+        <v>0.867619463835524</v>
       </c>
       <c r="P12">
-        <v>0.9948983538561397</v>
+        <v>0.9771817836952369</v>
       </c>
       <c r="Q12">
-        <v>0.9948983538561397</v>
+        <v>0.9771817836952369</v>
       </c>
       <c r="R12">
-        <v>1.011406764497368</v>
+        <v>1.035256208882481</v>
       </c>
       <c r="S12">
-        <v>1.011406764497368</v>
+        <v>1.035256208882481</v>
       </c>
       <c r="T12">
-        <v>0.9927761721614029</v>
+        <v>0.9753925187297031</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9848156145743401</v>
+        <v>0.9367330698355292</v>
       </c>
       <c r="D13">
-        <v>1.045533205251835</v>
+        <v>1.266826151276914</v>
       </c>
       <c r="E13">
-        <v>1.045533205251835</v>
+        <v>1.266826151276914</v>
       </c>
       <c r="F13">
-        <v>0.9912244128686374</v>
+        <v>0.9330382742604902</v>
       </c>
       <c r="G13">
-        <v>0.9893559544864849</v>
+        <v>0.934115472259727</v>
       </c>
       <c r="H13">
-        <v>0.9803161001929673</v>
+        <v>0.8290343390453783</v>
       </c>
       <c r="I13">
-        <v>1.022144696569696</v>
+        <v>1.142892275327232</v>
       </c>
       <c r="J13">
-        <v>0.9848156145743401</v>
+        <v>0.9367330698355292</v>
       </c>
       <c r="K13">
-        <v>0.9848156145743401</v>
+        <v>0.9367330698355292</v>
       </c>
       <c r="L13">
-        <v>0.9912244128686374</v>
+        <v>0.9330382742604902</v>
       </c>
       <c r="M13">
-        <v>1.018378809060236</v>
+        <v>1.099932212768702</v>
       </c>
       <c r="N13">
-        <v>1.018378809060236</v>
+        <v>1.099932212768702</v>
       </c>
       <c r="O13">
-        <v>1.019634104896723</v>
+        <v>1.114252233621545</v>
       </c>
       <c r="P13">
-        <v>1.007191077564938</v>
+        <v>1.045532498457644</v>
       </c>
       <c r="Q13">
-        <v>1.007191077564938</v>
+        <v>1.045532498457644</v>
       </c>
       <c r="R13">
-        <v>1.001597211817288</v>
+        <v>1.018332641302115</v>
       </c>
       <c r="S13">
-        <v>1.001597211817288</v>
+        <v>1.018332641302115</v>
       </c>
       <c r="T13">
-        <v>1.00223166399066</v>
+        <v>1.007106597000878</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.367955899999999</v>
+        <v>1.060931996421052</v>
       </c>
       <c r="D14">
-        <v>0.5229061699999994</v>
+        <v>0.9275854057052615</v>
       </c>
       <c r="E14">
-        <v>0.5229061699999994</v>
+        <v>0.9275854057052615</v>
       </c>
       <c r="F14">
-        <v>0.9917943100000015</v>
+        <v>0.9961776594421059</v>
       </c>
       <c r="G14">
-        <v>1.101462400000001</v>
+        <v>1.01505647211579</v>
       </c>
       <c r="H14">
-        <v>0.9618347199999993</v>
+        <v>0.9871383148947361</v>
       </c>
       <c r="I14">
-        <v>0.7938064499999996</v>
+        <v>0.9697671843894717</v>
       </c>
       <c r="J14">
-        <v>1.367955899999999</v>
+        <v>1.060931996421052</v>
       </c>
       <c r="K14">
-        <v>1.367955899999999</v>
+        <v>1.060931996421052</v>
       </c>
       <c r="L14">
-        <v>0.9917943100000015</v>
+        <v>0.9961776594421059</v>
       </c>
       <c r="M14">
-        <v>0.7573502400000005</v>
+        <v>0.9618815325736837</v>
       </c>
       <c r="N14">
-        <v>0.7573502400000005</v>
+        <v>0.9618815325736837</v>
       </c>
       <c r="O14">
-        <v>0.7695023100000001</v>
+        <v>0.9645100831789465</v>
       </c>
       <c r="P14">
-        <v>0.9608854600000001</v>
+        <v>0.9948983538561397</v>
       </c>
       <c r="Q14">
-        <v>0.9608854600000001</v>
+        <v>0.9948983538561397</v>
       </c>
       <c r="R14">
-        <v>1.06265307</v>
+        <v>1.011406764497368</v>
       </c>
       <c r="S14">
-        <v>1.06265307</v>
+        <v>1.011406764497368</v>
       </c>
       <c r="T14">
-        <v>0.9566266583333333</v>
+        <v>0.9927761721614029</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.3679559</v>
+        <v>0.9848156145743401</v>
       </c>
       <c r="D15">
-        <v>0.5229061699999999</v>
+        <v>1.045533205251835</v>
       </c>
       <c r="E15">
-        <v>0.5229061699999999</v>
+        <v>1.045533205251835</v>
       </c>
       <c r="F15">
-        <v>0.99179431</v>
+        <v>0.9912244128686374</v>
       </c>
       <c r="G15">
-        <v>1.1014624</v>
+        <v>0.9893559544864849</v>
       </c>
       <c r="H15">
-        <v>0.9618347200000001</v>
+        <v>0.9803161001929673</v>
       </c>
       <c r="I15">
-        <v>0.7938064500000001</v>
+        <v>1.022144696569696</v>
       </c>
       <c r="J15">
-        <v>1.3679559</v>
+        <v>0.9848156145743401</v>
       </c>
       <c r="K15">
-        <v>1.3679559</v>
+        <v>0.9848156145743401</v>
       </c>
       <c r="L15">
-        <v>0.99179431</v>
+        <v>0.9912244128686374</v>
       </c>
       <c r="M15">
-        <v>0.75735024</v>
+        <v>1.018378809060236</v>
       </c>
       <c r="N15">
-        <v>0.75735024</v>
+        <v>1.018378809060236</v>
       </c>
       <c r="O15">
-        <v>0.76950231</v>
+        <v>1.019634104896723</v>
       </c>
       <c r="P15">
-        <v>0.9608854599999997</v>
+        <v>1.007191077564938</v>
       </c>
       <c r="Q15">
-        <v>0.9608854599999997</v>
+        <v>1.007191077564938</v>
       </c>
       <c r="R15">
-        <v>1.06265307</v>
+        <v>1.001597211817288</v>
       </c>
       <c r="S15">
-        <v>1.06265307</v>
+        <v>1.001597211817288</v>
       </c>
       <c r="T15">
-        <v>0.9566266583333332</v>
+        <v>1.00223166399066</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.5229061699999999</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="D16">
-        <v>2.5748425</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="E16">
-        <v>2.5748425</v>
+        <v>0.5229061699999994</v>
       </c>
       <c r="F16">
-        <v>0.67340451</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="G16">
-        <v>0.62952744</v>
+        <v>1.101462400000001</v>
       </c>
       <c r="H16">
-        <v>0.25020352</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="I16">
-        <v>1.7748516</v>
+        <v>0.7938064499999996</v>
       </c>
       <c r="J16">
-        <v>0.5229061699999999</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="K16">
-        <v>0.5229061699999999</v>
+        <v>1.367955899999999</v>
       </c>
       <c r="L16">
-        <v>0.67340451</v>
+        <v>0.9917943100000015</v>
       </c>
       <c r="M16">
-        <v>1.624123505</v>
+        <v>0.7573502400000005</v>
       </c>
       <c r="N16">
-        <v>1.624123505</v>
+        <v>0.7573502400000005</v>
       </c>
       <c r="O16">
-        <v>1.674366203333333</v>
+        <v>0.7695023100000001</v>
       </c>
       <c r="P16">
-        <v>1.25705106</v>
+        <v>0.9608854600000001</v>
       </c>
       <c r="Q16">
-        <v>1.25705106</v>
+        <v>0.9608854600000001</v>
       </c>
       <c r="R16">
-        <v>1.0735148375</v>
+        <v>1.06265307</v>
       </c>
       <c r="S16">
-        <v>1.0735148375</v>
+        <v>1.06265307</v>
       </c>
       <c r="T16">
-        <v>1.070955956666667</v>
+        <v>0.9566266583333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.94939498</v>
+        <v>1.3679559</v>
       </c>
       <c r="D17">
-        <v>0.96376931</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="E17">
-        <v>0.96376931</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="F17">
-        <v>1.0324025</v>
+        <v>0.99179431</v>
       </c>
       <c r="G17">
-        <v>1.008202</v>
+        <v>1.1014624</v>
       </c>
       <c r="H17">
-        <v>1.040535</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="I17">
-        <v>0.99171065</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="J17">
-        <v>0.94939498</v>
+        <v>1.3679559</v>
       </c>
       <c r="K17">
-        <v>0.94939498</v>
+        <v>1.3679559</v>
       </c>
       <c r="L17">
-        <v>1.0324025</v>
+        <v>0.99179431</v>
       </c>
       <c r="M17">
-        <v>0.9980859049999999</v>
+        <v>0.75735024</v>
       </c>
       <c r="N17">
-        <v>0.9980859049999999</v>
+        <v>0.75735024</v>
       </c>
       <c r="O17">
-        <v>0.99596082</v>
+        <v>0.76950231</v>
       </c>
       <c r="P17">
-        <v>0.9818555966666667</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q17">
-        <v>0.9818555966666667</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R17">
-        <v>0.9737404425</v>
+        <v>1.06265307</v>
       </c>
       <c r="S17">
-        <v>0.9737404425</v>
+        <v>1.06265307</v>
       </c>
       <c r="T17">
-        <v>0.9976690733333333</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9630482964383559</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="D18">
-        <v>0.921814678219178</v>
+        <v>2.5748425</v>
       </c>
       <c r="E18">
-        <v>0.921814678219178</v>
+        <v>2.5748425</v>
       </c>
       <c r="F18">
-        <v>1.053987541780822</v>
+        <v>0.67340451</v>
       </c>
       <c r="G18">
-        <v>1.027474637260274</v>
+        <v>0.62952744</v>
       </c>
       <c r="H18">
-        <v>1.17688825260274</v>
+        <v>0.25020352</v>
       </c>
       <c r="I18">
-        <v>0.9271855960273977</v>
+        <v>1.7748516</v>
       </c>
       <c r="J18">
-        <v>0.9630482964383559</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="K18">
-        <v>0.9630482964383559</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="L18">
-        <v>1.053987541780822</v>
+        <v>0.67340451</v>
       </c>
       <c r="M18">
-        <v>0.9879011100000001</v>
+        <v>1.624123505</v>
       </c>
       <c r="N18">
-        <v>0.9879011100000001</v>
+        <v>1.624123505</v>
       </c>
       <c r="O18">
-        <v>0.9676626053424661</v>
+        <v>1.674366203333333</v>
       </c>
       <c r="P18">
-        <v>0.9796168388127854</v>
+        <v>1.25705106</v>
       </c>
       <c r="Q18">
-        <v>0.9796168388127854</v>
+        <v>1.25705106</v>
       </c>
       <c r="R18">
-        <v>0.975474703219178</v>
+        <v>1.0735148375</v>
       </c>
       <c r="S18">
-        <v>0.975474703219178</v>
+        <v>1.0735148375</v>
       </c>
       <c r="T18">
-        <v>1.011733167054795</v>
+        <v>1.070955956666667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9567933405263159</v>
+        <v>0.94939498</v>
       </c>
       <c r="D19">
-        <v>0.9600666142105262</v>
+        <v>0.96376931</v>
       </c>
       <c r="E19">
-        <v>0.9600666142105262</v>
+        <v>0.96376931</v>
       </c>
       <c r="F19">
-        <v>1.043153866842105</v>
+        <v>1.0324025</v>
       </c>
       <c r="G19">
-        <v>1.017975865789474</v>
+        <v>1.008202</v>
       </c>
       <c r="H19">
-        <v>1.149672160526316</v>
+        <v>1.040535</v>
       </c>
       <c r="I19">
-        <v>0.9477376073684212</v>
+        <v>0.99171065</v>
       </c>
       <c r="J19">
-        <v>0.9567933405263159</v>
+        <v>0.94939498</v>
       </c>
       <c r="K19">
-        <v>0.9567933405263159</v>
+        <v>0.94939498</v>
       </c>
       <c r="L19">
-        <v>1.043153866842105</v>
+        <v>1.0324025</v>
       </c>
       <c r="M19">
-        <v>1.001610240526316</v>
+        <v>0.9980859049999999</v>
       </c>
       <c r="N19">
-        <v>1.001610240526316</v>
+        <v>0.9980859049999999</v>
       </c>
       <c r="O19">
-        <v>0.9836526961403509</v>
+        <v>0.99596082</v>
       </c>
       <c r="P19">
-        <v>0.9866712738596491</v>
+        <v>0.9818555966666667</v>
       </c>
       <c r="Q19">
-        <v>0.9866712738596491</v>
+        <v>0.9818555966666667</v>
       </c>
       <c r="R19">
-        <v>0.9792017905263158</v>
+        <v>0.9737404425</v>
       </c>
       <c r="S19">
-        <v>0.9792017905263158</v>
+        <v>0.9737404425</v>
       </c>
       <c r="T19">
-        <v>1.012566575877193</v>
+        <v>0.9976690733333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9505445952631577</v>
+        <v>0.9630482964383559</v>
       </c>
       <c r="D20">
-        <v>1.463372223157895</v>
+        <v>0.921814678219178</v>
       </c>
       <c r="E20">
-        <v>1.463372223157895</v>
+        <v>0.921814678219178</v>
       </c>
       <c r="F20">
-        <v>0.8523795331578947</v>
+        <v>1.053987541780822</v>
       </c>
       <c r="G20">
-        <v>0.8809990821052632</v>
+        <v>1.027474637260274</v>
       </c>
       <c r="H20">
-        <v>0.6172963621052632</v>
+        <v>1.17688825260274</v>
       </c>
       <c r="I20">
-        <v>1.262084492631579</v>
+        <v>0.9271855960273977</v>
       </c>
       <c r="J20">
-        <v>0.9505445952631577</v>
+        <v>0.9630482964383559</v>
       </c>
       <c r="K20">
-        <v>0.9505445952631577</v>
+        <v>0.9630482964383559</v>
       </c>
       <c r="L20">
-        <v>0.8523795331578947</v>
+        <v>1.053987541780822</v>
       </c>
       <c r="M20">
-        <v>1.157875878157895</v>
+        <v>0.9879011100000001</v>
       </c>
       <c r="N20">
-        <v>1.157875878157895</v>
+        <v>0.9879011100000001</v>
       </c>
       <c r="O20">
-        <v>1.192612082982456</v>
+        <v>0.9676626053424661</v>
       </c>
       <c r="P20">
-        <v>1.088765450526316</v>
+        <v>0.9796168388127854</v>
       </c>
       <c r="Q20">
-        <v>1.088765450526316</v>
+        <v>0.9796168388127854</v>
       </c>
       <c r="R20">
-        <v>1.054210236710526</v>
+        <v>0.975474703219178</v>
       </c>
       <c r="S20">
-        <v>1.054210236710526</v>
+        <v>0.975474703219178</v>
       </c>
       <c r="T20">
-        <v>1.004446048070176</v>
+        <v>1.011733167054795</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.026238597490308</v>
+        <v>0.9567933405263159</v>
       </c>
       <c r="D21">
-        <v>0.3714423812481314</v>
+        <v>0.9600666142105262</v>
       </c>
       <c r="E21">
-        <v>0.3714423812481314</v>
+        <v>0.9600666142105262</v>
       </c>
       <c r="F21">
-        <v>1.231504511976268</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="G21">
-        <v>1.171660200104622</v>
+        <v>1.017975865789474</v>
       </c>
       <c r="H21">
-        <v>1.666904030482522</v>
+        <v>1.149672160526316</v>
       </c>
       <c r="I21">
-        <v>0.6015906712504765</v>
+        <v>0.9477376073684212</v>
       </c>
       <c r="J21">
-        <v>1.026238597490308</v>
+        <v>0.9567933405263159</v>
       </c>
       <c r="K21">
-        <v>1.026238597490308</v>
+        <v>0.9567933405263159</v>
       </c>
       <c r="L21">
-        <v>1.231504511976268</v>
+        <v>1.043153866842105</v>
       </c>
       <c r="M21">
-        <v>0.8014734466121994</v>
+        <v>1.001610240526316</v>
       </c>
       <c r="N21">
-        <v>0.8014734466121994</v>
+        <v>1.001610240526316</v>
       </c>
       <c r="O21">
-        <v>0.7348458548249585</v>
+        <v>0.9836526961403509</v>
       </c>
       <c r="P21">
-        <v>0.8763951635715689</v>
+        <v>0.9866712738596491</v>
       </c>
       <c r="Q21">
-        <v>0.8763951635715689</v>
+        <v>0.9866712738596491</v>
       </c>
       <c r="R21">
-        <v>0.9138560220512537</v>
+        <v>0.9792017905263158</v>
       </c>
       <c r="S21">
-        <v>0.9138560220512537</v>
+        <v>0.9792017905263158</v>
       </c>
       <c r="T21">
-        <v>1.011556732092054</v>
+        <v>1.012566575877193</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.112333449944351</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="D22">
-        <v>0.7547194126561589</v>
+        <v>1.463372223157895</v>
       </c>
       <c r="E22">
-        <v>0.7547194126561589</v>
+        <v>1.463372223157895</v>
       </c>
       <c r="F22">
-        <v>1.031417962512543</v>
+        <v>0.8523795331578947</v>
       </c>
       <c r="G22">
-        <v>1.055008481145014</v>
+        <v>0.8809990821052632</v>
       </c>
       <c r="H22">
-        <v>1.054495661141747</v>
+        <v>0.6172963621052632</v>
       </c>
       <c r="I22">
-        <v>0.8896802287133405</v>
+        <v>1.262084492631579</v>
       </c>
       <c r="J22">
-        <v>1.112333449944351</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="K22">
-        <v>1.112333449944351</v>
+        <v>0.9505445952631577</v>
       </c>
       <c r="L22">
-        <v>1.031417962512543</v>
+        <v>0.8523795331578947</v>
       </c>
       <c r="M22">
-        <v>0.8930686875843509</v>
+        <v>1.157875878157895</v>
       </c>
       <c r="N22">
-        <v>0.8930686875843509</v>
+        <v>1.157875878157895</v>
       </c>
       <c r="O22">
-        <v>0.8919392012940142</v>
+        <v>1.192612082982456</v>
       </c>
       <c r="P22">
-        <v>0.9661569417043511</v>
+        <v>1.088765450526316</v>
       </c>
       <c r="Q22">
-        <v>0.9661569417043511</v>
+        <v>1.088765450526316</v>
       </c>
       <c r="R22">
-        <v>1.002701068764351</v>
+        <v>1.054210236710526</v>
       </c>
       <c r="S22">
-        <v>1.002701068764351</v>
+        <v>1.054210236710526</v>
       </c>
       <c r="T22">
-        <v>0.9829425326855256</v>
+        <v>1.004446048070176</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9877932451931219</v>
+        <v>1.026238597490308</v>
       </c>
       <c r="D23">
-        <v>0.9842976226294285</v>
+        <v>0.3714423812481314</v>
       </c>
       <c r="E23">
-        <v>0.9842976226294285</v>
+        <v>0.3714423812481314</v>
       </c>
       <c r="F23">
-        <v>1.009648920589846</v>
+        <v>1.231504511976268</v>
       </c>
       <c r="G23">
-        <v>1.003277000515179</v>
+        <v>1.171660200104622</v>
       </c>
       <c r="H23">
-        <v>1.0123530879069</v>
+        <v>1.666904030482522</v>
       </c>
       <c r="I23">
-        <v>0.9958367111768501</v>
+        <v>0.6015906712504765</v>
       </c>
       <c r="J23">
-        <v>0.9877932451931219</v>
+        <v>1.026238597490308</v>
       </c>
       <c r="K23">
-        <v>0.9877932451931219</v>
+        <v>1.026238597490308</v>
       </c>
       <c r="L23">
-        <v>1.009648920589846</v>
+        <v>1.231504511976268</v>
       </c>
       <c r="M23">
-        <v>0.9969732716096376</v>
+        <v>0.8014734466121994</v>
       </c>
       <c r="N23">
-        <v>0.9969732716096376</v>
+        <v>0.8014734466121994</v>
       </c>
       <c r="O23">
-        <v>0.9965944181320417</v>
+        <v>0.7348458548249585</v>
       </c>
       <c r="P23">
-        <v>0.9939132628041323</v>
+        <v>0.8763951635715689</v>
       </c>
       <c r="Q23">
-        <v>0.9939132628041323</v>
+        <v>0.8763951635715689</v>
       </c>
       <c r="R23">
-        <v>0.9923832584013796</v>
+        <v>0.9138560220512537</v>
       </c>
       <c r="S23">
-        <v>0.9923832584013796</v>
+        <v>0.9138560220512537</v>
       </c>
       <c r="T23">
-        <v>0.9988677646685543</v>
+        <v>1.011556732092054</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.012417350723668</v>
+        <v>1.112333449944351</v>
       </c>
       <c r="D24">
-        <v>1.008235246009658</v>
+        <v>0.7547194126561589</v>
       </c>
       <c r="E24">
-        <v>1.008235246009658</v>
+        <v>0.7547194126561589</v>
       </c>
       <c r="F24">
-        <v>0.9937204182804563</v>
+        <v>1.031417962512543</v>
       </c>
       <c r="G24">
-        <v>0.9991714166296328</v>
+        <v>1.055008481145014</v>
       </c>
       <c r="H24">
-        <v>1.001769513228698</v>
+        <v>1.054495661141747</v>
       </c>
       <c r="I24">
-        <v>0.9972891075569357</v>
+        <v>0.8896802287133405</v>
       </c>
       <c r="J24">
-        <v>1.012417350723668</v>
+        <v>1.112333449944351</v>
       </c>
       <c r="K24">
-        <v>1.012417350723668</v>
+        <v>1.112333449944351</v>
       </c>
       <c r="L24">
-        <v>0.9937204182804563</v>
+        <v>1.031417962512543</v>
       </c>
       <c r="M24">
-        <v>1.000977832145057</v>
+        <v>0.8930686875843509</v>
       </c>
       <c r="N24">
-        <v>1.000977832145057</v>
+        <v>0.8930686875843509</v>
       </c>
       <c r="O24">
-        <v>0.9997482572823498</v>
+        <v>0.8919392012940142</v>
       </c>
       <c r="P24">
-        <v>1.004791005004594</v>
+        <v>0.9661569417043511</v>
       </c>
       <c r="Q24">
-        <v>1.004791005004594</v>
+        <v>0.9661569417043511</v>
       </c>
       <c r="R24">
-        <v>1.006697591434362</v>
+        <v>1.002701068764351</v>
       </c>
       <c r="S24">
-        <v>1.006697591434362</v>
+        <v>1.002701068764351</v>
       </c>
       <c r="T24">
-        <v>1.002100508738175</v>
+        <v>0.9829425326855256</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7094658101932655</v>
+        <v>0.9877932451931219</v>
       </c>
       <c r="D25">
-        <v>1.987291489559742</v>
+        <v>0.9842976226294285</v>
       </c>
       <c r="E25">
-        <v>1.987291489559742</v>
+        <v>0.9842976226294285</v>
       </c>
       <c r="F25">
-        <v>0.7807582616836947</v>
+        <v>1.009648920589846</v>
       </c>
       <c r="G25">
-        <v>0.7599732911573341</v>
+        <v>1.003277000515179</v>
       </c>
       <c r="H25">
-        <v>0.4456680743781916</v>
+        <v>1.0123530879069</v>
       </c>
       <c r="I25">
-        <v>1.517071100800389</v>
+        <v>0.9958367111768501</v>
       </c>
       <c r="J25">
-        <v>0.7094658101932655</v>
+        <v>0.9877932451931219</v>
       </c>
       <c r="K25">
-        <v>0.7094658101932655</v>
+        <v>0.9877932451931219</v>
       </c>
       <c r="L25">
-        <v>0.7807582616836947</v>
+        <v>1.009648920589846</v>
       </c>
       <c r="M25">
-        <v>1.384024875621718</v>
+        <v>0.9969732716096376</v>
       </c>
       <c r="N25">
-        <v>1.384024875621718</v>
+        <v>0.9969732716096376</v>
       </c>
       <c r="O25">
-        <v>1.428373617347942</v>
+        <v>0.9965944181320417</v>
       </c>
       <c r="P25">
-        <v>1.159171853812234</v>
+        <v>0.9939132628041323</v>
       </c>
       <c r="Q25">
-        <v>1.159171853812234</v>
+        <v>0.9939132628041323</v>
       </c>
       <c r="R25">
-        <v>1.046745342907492</v>
+        <v>0.9923832584013796</v>
       </c>
       <c r="S25">
-        <v>1.046745342907492</v>
+        <v>0.9923832584013796</v>
       </c>
       <c r="T25">
-        <v>1.033371337962103</v>
+        <v>0.9988677646685543</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.956837608256232</v>
+        <v>1.012417350723668</v>
       </c>
       <c r="D26">
-        <v>1.220094472832538</v>
+        <v>1.008235246009658</v>
       </c>
       <c r="E26">
-        <v>1.220094472832538</v>
+        <v>1.008235246009658</v>
       </c>
       <c r="F26">
-        <v>0.9342608909187007</v>
+        <v>0.9937204182804563</v>
       </c>
       <c r="G26">
-        <v>0.94084302729389</v>
+        <v>0.9991714166296328</v>
       </c>
       <c r="H26">
-        <v>0.8001049906340567</v>
+        <v>1.001769513228698</v>
       </c>
       <c r="I26">
-        <v>1.137938637739547</v>
+        <v>0.9972891075569357</v>
       </c>
       <c r="J26">
-        <v>0.956837608256232</v>
+        <v>1.012417350723668</v>
       </c>
       <c r="K26">
-        <v>0.956837608256232</v>
+        <v>1.012417350723668</v>
       </c>
       <c r="L26">
-        <v>0.9342608909187007</v>
+        <v>0.9937204182804563</v>
       </c>
       <c r="M26">
-        <v>1.077177681875619</v>
+        <v>1.000977832145057</v>
       </c>
       <c r="N26">
-        <v>1.077177681875619</v>
+        <v>1.000977832145057</v>
       </c>
       <c r="O26">
-        <v>1.097431333830262</v>
+        <v>0.9997482572823498</v>
       </c>
       <c r="P26">
-        <v>1.03706432400249</v>
+        <v>1.004791005004594</v>
       </c>
       <c r="Q26">
-        <v>1.03706432400249</v>
+        <v>1.004791005004594</v>
       </c>
       <c r="R26">
-        <v>1.017007645065926</v>
+        <v>1.006697591434362</v>
       </c>
       <c r="S26">
-        <v>1.017007645065926</v>
+        <v>1.006697591434362</v>
       </c>
       <c r="T26">
-        <v>0.9983466046124941</v>
+        <v>1.002100508738175</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9979128718268249</v>
+        <v>0.7094658101932655</v>
       </c>
       <c r="D27">
-        <v>0.9800743683866491</v>
+        <v>1.987291489559742</v>
       </c>
       <c r="E27">
-        <v>0.9800743683866491</v>
+        <v>1.987291489559742</v>
       </c>
       <c r="F27">
-        <v>1.008149913662128</v>
+        <v>0.7807582616836947</v>
       </c>
       <c r="G27">
-        <v>1.005165363597813</v>
+        <v>0.7599732911573341</v>
       </c>
       <c r="H27">
-        <v>1.01973748468589</v>
+        <v>0.4456680743781916</v>
       </c>
       <c r="I27">
-        <v>0.9888658016855725</v>
+        <v>1.517071100800389</v>
       </c>
       <c r="J27">
-        <v>0.9979128718268249</v>
+        <v>0.7094658101932655</v>
       </c>
       <c r="K27">
-        <v>0.9979128718268249</v>
+        <v>0.7094658101932655</v>
       </c>
       <c r="L27">
-        <v>1.008149913662128</v>
+        <v>0.7807582616836947</v>
       </c>
       <c r="M27">
-        <v>0.9941121410243884</v>
+        <v>1.384024875621718</v>
       </c>
       <c r="N27">
-        <v>0.9941121410243884</v>
+        <v>1.384024875621718</v>
       </c>
       <c r="O27">
-        <v>0.9923633612447831</v>
+        <v>1.428373617347942</v>
       </c>
       <c r="P27">
-        <v>0.9953790512918671</v>
+        <v>1.159171853812234</v>
       </c>
       <c r="Q27">
-        <v>0.9953790512918671</v>
+        <v>1.159171853812234</v>
       </c>
       <c r="R27">
-        <v>0.9960125064256066</v>
+        <v>1.046745342907492</v>
       </c>
       <c r="S27">
-        <v>0.9960125064256066</v>
+        <v>1.046745342907492</v>
       </c>
       <c r="T27">
-        <v>0.999984300640813</v>
+        <v>1.033371337962103</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9423301493246893</v>
+        <v>0.956837608256232</v>
       </c>
       <c r="D28">
-        <v>1.097653965657105</v>
+        <v>1.220094472832538</v>
       </c>
       <c r="E28">
-        <v>1.097653965657105</v>
+        <v>1.220094472832538</v>
       </c>
       <c r="F28">
-        <v>0.9947485351819764</v>
+        <v>0.9342608909187007</v>
       </c>
       <c r="G28">
-        <v>0.9794662024351659</v>
+        <v>0.94084302729389</v>
       </c>
       <c r="H28">
-        <v>1.001354247840721</v>
+        <v>0.8001049906340567</v>
       </c>
       <c r="I28">
-        <v>1.039172588175999</v>
+        <v>1.137938637739547</v>
       </c>
       <c r="J28">
-        <v>0.9423301493246893</v>
+        <v>0.956837608256232</v>
       </c>
       <c r="K28">
-        <v>0.9423301493246893</v>
+        <v>0.956837608256232</v>
       </c>
       <c r="L28">
-        <v>0.9947485351819764</v>
+        <v>0.9342608909187007</v>
       </c>
       <c r="M28">
-        <v>1.046201250419541</v>
+        <v>1.077177681875619</v>
       </c>
       <c r="N28">
-        <v>1.046201250419541</v>
+        <v>1.077177681875619</v>
       </c>
       <c r="O28">
-        <v>1.043858363005027</v>
+        <v>1.097431333830262</v>
       </c>
       <c r="P28">
-        <v>1.01157755005459</v>
+        <v>1.03706432400249</v>
       </c>
       <c r="Q28">
-        <v>1.01157755005459</v>
+        <v>1.03706432400249</v>
       </c>
       <c r="R28">
-        <v>0.994265699872115</v>
+        <v>1.017007645065926</v>
       </c>
       <c r="S28">
-        <v>0.994265699872115</v>
+        <v>1.017007645065926</v>
       </c>
       <c r="T28">
-        <v>1.009120948102609</v>
+        <v>0.9983466046124941</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="D29">
+        <v>0.9800743683866491</v>
+      </c>
+      <c r="E29">
+        <v>0.9800743683866491</v>
+      </c>
+      <c r="F29">
+        <v>1.008149913662128</v>
+      </c>
+      <c r="G29">
+        <v>1.005165363597813</v>
+      </c>
+      <c r="H29">
+        <v>1.01973748468589</v>
+      </c>
+      <c r="I29">
+        <v>0.9888658016855725</v>
+      </c>
+      <c r="J29">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="K29">
+        <v>0.9979128718268249</v>
+      </c>
+      <c r="L29">
+        <v>1.008149913662128</v>
+      </c>
+      <c r="M29">
+        <v>0.9941121410243884</v>
+      </c>
+      <c r="N29">
+        <v>0.9941121410243884</v>
+      </c>
+      <c r="O29">
+        <v>0.9923633612447831</v>
+      </c>
+      <c r="P29">
+        <v>0.9953790512918671</v>
+      </c>
+      <c r="Q29">
+        <v>0.9953790512918671</v>
+      </c>
+      <c r="R29">
+        <v>0.9960125064256066</v>
+      </c>
+      <c r="S29">
+        <v>0.9960125064256066</v>
+      </c>
+      <c r="T29">
+        <v>0.999984300640813</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9423301493246893</v>
+      </c>
+      <c r="D30">
+        <v>1.097653965657105</v>
+      </c>
+      <c r="E30">
+        <v>1.097653965657105</v>
+      </c>
+      <c r="F30">
+        <v>0.9947485351819764</v>
+      </c>
+      <c r="G30">
+        <v>0.9794662024351659</v>
+      </c>
+      <c r="H30">
+        <v>1.001354247840721</v>
+      </c>
+      <c r="I30">
+        <v>1.039172588175999</v>
+      </c>
+      <c r="J30">
+        <v>0.9423301493246893</v>
+      </c>
+      <c r="K30">
+        <v>0.9423301493246893</v>
+      </c>
+      <c r="L30">
+        <v>0.9947485351819764</v>
+      </c>
+      <c r="M30">
+        <v>1.046201250419541</v>
+      </c>
+      <c r="N30">
+        <v>1.046201250419541</v>
+      </c>
+      <c r="O30">
+        <v>1.043858363005027</v>
+      </c>
+      <c r="P30">
+        <v>1.01157755005459</v>
+      </c>
+      <c r="Q30">
+        <v>1.01157755005459</v>
+      </c>
+      <c r="R30">
+        <v>0.994265699872115</v>
+      </c>
+      <c r="S30">
+        <v>0.994265699872115</v>
+      </c>
+      <c r="T30">
+        <v>1.009120948102609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9108845041773143</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.144707517441808</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.144707517441808</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9897456565242705</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9667540619969163</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9689300330126085</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.071568426820827</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9108845041773143</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9108845041773143</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9897456565242705</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.067226586983039</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.067226586983039</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.068673866928969</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.015112559381131</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.015112559381131</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9890555455801768</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9890555455801768</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.008765033328958</v>
       </c>
     </row>
